--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -451,7 +451,7 @@
         <v>99</v>
       </c>
       <c r="K2">
-        <v>13.13131313131313</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>99</v>
       </c>
       <c r="K6">
-        <v>7.07070707070707</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>99</v>
       </c>
       <c r="K7">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>99</v>
       </c>
       <c r="K8">
-        <v>14.14141414141414</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="9">
@@ -716,7 +716,7 @@
         <v>99</v>
       </c>
       <c r="K9">
-        <v>59.59595959595959</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="10">
@@ -756,7 +756,7 @@
         <v>99</v>
       </c>
       <c r="K10">
-        <v>27.27272727272727</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="11">
@@ -892,7 +892,7 @@
         <v>99</v>
       </c>
       <c r="K14">
-        <v>7.07070707070707</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="15">
@@ -966,7 +966,7 @@
         <v>99</v>
       </c>
       <c r="K16">
-        <v>14.14141414141414</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="17">
@@ -1009,7 +1009,7 @@
         <v>99</v>
       </c>
       <c r="K17">
-        <v>51.51515151515152</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="18">
@@ -1049,7 +1049,7 @@
         <v>99</v>
       </c>
       <c r="K18">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="19">
@@ -1092,7 +1092,7 @@
         <v>99</v>
       </c>
       <c r="K19">
-        <v>3.03030303030303</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="20">
@@ -1166,7 +1166,7 @@
         <v>99</v>
       </c>
       <c r="K21">
-        <v>2.02020202020202</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="22">
@@ -1209,7 +1209,7 @@
         <v>99</v>
       </c>
       <c r="K22">
-        <v>16.16161616161616</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>99</v>
       </c>
       <c r="K23">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="24">
@@ -1295,7 +1295,7 @@
         <v>99</v>
       </c>
       <c r="K24">
-        <v>20.2020202020202</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="25">
@@ -1338,7 +1338,7 @@
         <v>99</v>
       </c>
       <c r="K25">
-        <v>48.48484848484848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="26">
@@ -1378,7 +1378,7 @@
         <v>99</v>
       </c>
       <c r="K26">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="27">
@@ -1452,7 +1452,7 @@
         <v>99</v>
       </c>
       <c r="K28">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="29">
@@ -1526,7 +1526,7 @@
         <v>99</v>
       </c>
       <c r="K30">
-        <v>16.16161616161616</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="31">
@@ -1569,7 +1569,7 @@
         <v>99</v>
       </c>
       <c r="K31">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="32">
@@ -1612,7 +1612,7 @@
         <v>99</v>
       </c>
       <c r="K32">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="33">
@@ -1655,7 +1655,7 @@
         <v>99</v>
       </c>
       <c r="K33">
-        <v>48.48484848484848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="34">
@@ -1769,7 +1769,7 @@
         <v>99</v>
       </c>
       <c r="K36">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="37">
@@ -1812,7 +1812,7 @@
         <v>99</v>
       </c>
       <c r="K37">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="38">
@@ -1855,7 +1855,7 @@
         <v>99</v>
       </c>
       <c r="K38">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="39">
@@ -1898,7 +1898,7 @@
         <v>99</v>
       </c>
       <c r="K39">
-        <v>8.080808080808081</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="40">
@@ -1941,7 +1941,7 @@
         <v>99</v>
       </c>
       <c r="K40">
-        <v>20.2020202020202</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="41">
@@ -1984,7 +1984,7 @@
         <v>99</v>
       </c>
       <c r="K41">
-        <v>54.54545454545454</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="42">
@@ -2027,7 +2027,7 @@
         <v>99</v>
       </c>
       <c r="K42">
-        <v>3.03030303030303</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="43">
@@ -2172,7 +2172,7 @@
         <v>99</v>
       </c>
       <c r="K46">
-        <v>3.03030303030303</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="47">
@@ -2215,7 +2215,7 @@
         <v>99</v>
       </c>
       <c r="K47">
-        <v>9.090909090909092</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="48">
@@ -2258,7 +2258,7 @@
         <v>99</v>
       </c>
       <c r="K48">
-        <v>12.12121212121212</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="49">
@@ -2301,7 +2301,7 @@
         <v>99</v>
       </c>
       <c r="K49">
-        <v>20.2020202020202</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="50">
@@ -2344,7 +2344,7 @@
         <v>99</v>
       </c>
       <c r="K50">
-        <v>52.52525252525253</v>
+        <v>52.53</v>
       </c>
     </row>
     <row r="51">
@@ -2387,7 +2387,7 @@
         <v>99</v>
       </c>
       <c r="K51">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="52">
@@ -2532,7 +2532,7 @@
         <v>99</v>
       </c>
       <c r="K55">
-        <v>2.02020202020202</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="56">
@@ -2575,7 +2575,7 @@
         <v>99</v>
       </c>
       <c r="K56">
-        <v>15.15151515151515</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="57">
@@ -2618,7 +2618,7 @@
         <v>99</v>
       </c>
       <c r="K57">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="58">
@@ -2661,7 +2661,7 @@
         <v>99</v>
       </c>
       <c r="K58">
-        <v>25.25252525252525</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="59">
@@ -2704,7 +2704,7 @@
         <v>99</v>
       </c>
       <c r="K59">
-        <v>51.51515151515152</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="60">
@@ -2747,7 +2747,7 @@
         <v>99</v>
       </c>
       <c r="K60">
-        <v>3.03030303030303</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="61">
@@ -2892,7 +2892,7 @@
         <v>99</v>
       </c>
       <c r="K64">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="65">
@@ -2935,7 +2935,7 @@
         <v>99</v>
       </c>
       <c r="K65">
-        <v>13.13131313131313</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="66">
@@ -2978,7 +2978,7 @@
         <v>99</v>
       </c>
       <c r="K66">
-        <v>12.12121212121212</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="67">
@@ -3021,7 +3021,7 @@
         <v>99</v>
       </c>
       <c r="K67">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="68">
@@ -3064,7 +3064,7 @@
         <v>99</v>
       </c>
       <c r="K68">
-        <v>48.48484848484848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="69">
@@ -3107,7 +3107,7 @@
         <v>99</v>
       </c>
       <c r="K69">
-        <v>2.02020202020202</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="70">
@@ -3252,7 +3252,7 @@
         <v>99</v>
       </c>
       <c r="K73">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="74">
@@ -3295,7 +3295,7 @@
         <v>99</v>
       </c>
       <c r="K74">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="75">
@@ -3338,7 +3338,7 @@
         <v>99</v>
       </c>
       <c r="K75">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="76">
@@ -3381,7 +3381,7 @@
         <v>99</v>
       </c>
       <c r="K76">
-        <v>27.27272727272727</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="77">
@@ -3424,7 +3424,7 @@
         <v>99</v>
       </c>
       <c r="K77">
-        <v>47.47474747474747</v>
+        <v>47.47</v>
       </c>
     </row>
     <row r="78">
@@ -3467,7 +3467,7 @@
         <v>99</v>
       </c>
       <c r="K78">
-        <v>3.03030303030303</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="79">
@@ -3643,7 +3643,7 @@
         <v>99</v>
       </c>
       <c r="K83">
-        <v>17.17171717171717</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="84">
@@ -3686,7 +3686,7 @@
         <v>99</v>
       </c>
       <c r="K84">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="85">
@@ -3729,7 +3729,7 @@
         <v>99</v>
       </c>
       <c r="K85">
-        <v>24.24242424242424</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="86">
@@ -3772,7 +3772,7 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>45.45454545454545</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="87">
@@ -3815,7 +3815,7 @@
         <v>99</v>
       </c>
       <c r="K87">
-        <v>19.19191919191919</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="88">
@@ -3929,7 +3929,7 @@
         <v>99</v>
       </c>
       <c r="K90">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="91">
@@ -4003,7 +4003,7 @@
         <v>99</v>
       </c>
       <c r="K92">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="93">
@@ -4077,7 +4077,7 @@
         <v>99</v>
       </c>
       <c r="K94">
-        <v>14.14141414141414</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="95">
@@ -4120,7 +4120,7 @@
         <v>99</v>
       </c>
       <c r="K95">
-        <v>59.59595959595959</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="96">
@@ -4163,7 +4163,7 @@
         <v>99</v>
       </c>
       <c r="K96">
-        <v>20.2020202020202</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="97">
@@ -4339,7 +4339,7 @@
         <v>99</v>
       </c>
       <c r="K101">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="102">
@@ -4413,7 +4413,7 @@
         <v>99</v>
       </c>
       <c r="K103">
-        <v>15.15151515151515</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="104">
@@ -4456,7 +4456,7 @@
         <v>99</v>
       </c>
       <c r="K104">
-        <v>60.60606060606061</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="105">
@@ -4499,7 +4499,7 @@
         <v>99</v>
       </c>
       <c r="K105">
-        <v>38.38383838383838</v>
+        <v>38.38</v>
       </c>
     </row>
     <row r="106">
@@ -4644,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="K109">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="110">
@@ -4718,7 +4718,7 @@
         <v>99</v>
       </c>
       <c r="K111">
-        <v>15.15151515151515</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="112">
@@ -4792,7 +4792,7 @@
         <v>99</v>
       </c>
       <c r="K113">
-        <v>41.41414141414141</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="114">
@@ -4835,7 +4835,7 @@
         <v>99</v>
       </c>
       <c r="K114">
-        <v>35.35353535353536</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="115">
@@ -4980,7 +4980,7 @@
         <v>99</v>
       </c>
       <c r="K118">
-        <v>4.040404040404041</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="119">
@@ -5054,7 +5054,7 @@
         <v>99</v>
       </c>
       <c r="K120">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="121">
@@ -5128,7 +5128,7 @@
         <v>99</v>
       </c>
       <c r="K122">
-        <v>50.50505050505051</v>
+        <v>50.51</v>
       </c>
     </row>
     <row r="123">
@@ -5171,7 +5171,7 @@
         <v>99</v>
       </c>
       <c r="K123">
-        <v>38.38383838383838</v>
+        <v>38.38</v>
       </c>
     </row>
     <row r="124">
@@ -5316,7 +5316,7 @@
         <v>99</v>
       </c>
       <c r="K127">
-        <v>1.01010101010101</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="128">
@@ -5390,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="K129">
-        <v>18.18181818181818</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="130">
@@ -5464,7 +5464,7 @@
         <v>99</v>
       </c>
       <c r="K131">
-        <v>42.42424242424242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="132">
@@ -5507,7 +5507,7 @@
         <v>99</v>
       </c>
       <c r="K132">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="133">
@@ -5652,7 +5652,7 @@
         <v>99</v>
       </c>
       <c r="K136">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="137">
@@ -5726,7 +5726,7 @@
         <v>99</v>
       </c>
       <c r="K138">
-        <v>7.07070707070707</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="139">
@@ -5800,7 +5800,7 @@
         <v>99</v>
       </c>
       <c r="K140">
-        <v>54.54545454545454</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="141">
@@ -5840,7 +5840,7 @@
         <v>99</v>
       </c>
       <c r="K141">
-        <v>48.48484848484848</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="142">
@@ -5945,7 +5945,7 @@
         <v>99</v>
       </c>
       <c r="K144">
-        <v>6.060606060606061</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="145">
@@ -6019,7 +6019,7 @@
         <v>99</v>
       </c>
       <c r="K146">
-        <v>16.16161616161616</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="147">
@@ -6093,7 +6093,7 @@
         <v>99</v>
       </c>
       <c r="K148">
-        <v>29.29292929292929</v>
+        <v>29.29</v>
       </c>
     </row>
     <row r="149">
@@ -6133,7 +6133,7 @@
         <v>99</v>
       </c>
       <c r="K149">
-        <v>42.42424242424242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="150">
@@ -6238,7 +6238,7 @@
         <v>99</v>
       </c>
       <c r="K152">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="153">
@@ -6312,7 +6312,7 @@
         <v>99</v>
       </c>
       <c r="K154">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="155">
@@ -6386,7 +6386,7 @@
         <v>99</v>
       </c>
       <c r="K156">
-        <v>42.42424242424242</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="157">
@@ -6429,7 +6429,7 @@
         <v>99</v>
       </c>
       <c r="K157">
-        <v>63.63636363636363</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="158">
@@ -6574,7 +6574,7 @@
         <v>99</v>
       </c>
       <c r="K161">
-        <v>2.02020202020202</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="162">
@@ -6648,7 +6648,7 @@
         <v>99</v>
       </c>
       <c r="K163">
-        <v>12.12121212121212</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="164">
@@ -6722,7 +6722,7 @@
         <v>99</v>
       </c>
       <c r="K165">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="166">
@@ -6762,7 +6762,7 @@
         <v>99</v>
       </c>
       <c r="K166">
-        <v>44.44444444444444</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="167">
@@ -6867,7 +6867,7 @@
         <v>99</v>
       </c>
       <c r="K169">
-        <v>5.05050505050505</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="170">
@@ -6941,7 +6941,7 @@
         <v>99</v>
       </c>
       <c r="K171">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="172">
@@ -7015,7 +7015,7 @@
         <v>99</v>
       </c>
       <c r="K173">
-        <v>40.4040404040404</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="174">
@@ -7055,7 +7055,7 @@
         <v>99</v>
       </c>
       <c r="K174">
-        <v>44.44444444444444</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="175">
@@ -7160,7 +7160,7 @@
         <v>99</v>
       </c>
       <c r="K177">
-        <v>2.02020202020202</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="178">
@@ -7234,7 +7234,7 @@
         <v>99</v>
       </c>
       <c r="K179">
-        <v>10.1010101010101</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="180">
@@ -7308,7 +7308,7 @@
         <v>99</v>
       </c>
       <c r="K181">
-        <v>43.43434343434344</v>
+        <v>43.43</v>
       </c>
     </row>
     <row r="182">
@@ -7348,7 +7348,7 @@
         <v>24</v>
       </c>
       <c r="K182">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="183">
@@ -7484,7 +7484,7 @@
         <v>24</v>
       </c>
       <c r="K186">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="187">
@@ -7527,7 +7527,7 @@
         <v>24</v>
       </c>
       <c r="K187">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="188">
@@ -7613,7 +7613,7 @@
         <v>24</v>
       </c>
       <c r="K189">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="190">
@@ -7653,7 +7653,7 @@
         <v>27</v>
       </c>
       <c r="K190">
-        <v>51.85185185185185</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="191">
@@ -7789,7 +7789,7 @@
         <v>27</v>
       </c>
       <c r="K194">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="195">
@@ -7832,7 +7832,7 @@
         <v>27</v>
       </c>
       <c r="K195">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="196">
@@ -7875,7 +7875,7 @@
         <v>27</v>
       </c>
       <c r="K196">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="197">
@@ -7918,7 +7918,7 @@
         <v>27</v>
       </c>
       <c r="K197">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="198">
@@ -7958,7 +7958,7 @@
         <v>24</v>
       </c>
       <c r="K198">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="199">
@@ -8137,7 +8137,7 @@
         <v>24</v>
       </c>
       <c r="K203">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="204">
@@ -8263,7 +8263,7 @@
         <v>27</v>
       </c>
       <c r="K206">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="207">
@@ -8368,7 +8368,7 @@
         <v>27</v>
       </c>
       <c r="K209">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="210">
@@ -8411,7 +8411,7 @@
         <v>27</v>
       </c>
       <c r="K210">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="211">
@@ -8454,7 +8454,7 @@
         <v>27</v>
       </c>
       <c r="K211">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="212">
@@ -8497,7 +8497,7 @@
         <v>27</v>
       </c>
       <c r="K212">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="213">
@@ -8540,7 +8540,7 @@
         <v>27</v>
       </c>
       <c r="K213">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="214">
@@ -8716,7 +8716,7 @@
         <v>24</v>
       </c>
       <c r="K218">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="219">
@@ -8759,7 +8759,7 @@
         <v>24</v>
       </c>
       <c r="K219">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="220">
@@ -8802,7 +8802,7 @@
         <v>24</v>
       </c>
       <c r="K220">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="221">
@@ -8845,7 +8845,7 @@
         <v>24</v>
       </c>
       <c r="K221">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="222">
@@ -8990,7 +8990,7 @@
         <v>27</v>
       </c>
       <c r="K225">
-        <v>14.81481481481481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="226">
@@ -9033,7 +9033,7 @@
         <v>27</v>
       </c>
       <c r="K226">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="227">
@@ -9076,7 +9076,7 @@
         <v>27</v>
       </c>
       <c r="K227">
-        <v>29.62962962962963</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="228">
@@ -9119,7 +9119,7 @@
         <v>27</v>
       </c>
       <c r="K228">
-        <v>14.81481481481481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="229">
@@ -9162,7 +9162,7 @@
         <v>27</v>
       </c>
       <c r="K229">
-        <v>37.03703703703704</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="230">
@@ -9338,7 +9338,7 @@
         <v>24</v>
       </c>
       <c r="K234">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="235">
@@ -9381,7 +9381,7 @@
         <v>24</v>
       </c>
       <c r="K235">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="236">
@@ -9424,7 +9424,7 @@
         <v>24</v>
       </c>
       <c r="K236">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="237">
@@ -9467,7 +9467,7 @@
         <v>24</v>
       </c>
       <c r="K237">
-        <v>54.16666666666666</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="238">
@@ -9510,7 +9510,7 @@
         <v>27</v>
       </c>
       <c r="K238">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="239">
@@ -9655,7 +9655,7 @@
         <v>27</v>
       </c>
       <c r="K242">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="243">
@@ -9698,7 +9698,7 @@
         <v>27</v>
       </c>
       <c r="K243">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="244">
@@ -9741,7 +9741,7 @@
         <v>27</v>
       </c>
       <c r="K244">
-        <v>14.81481481481481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="245">
@@ -9784,7 +9784,7 @@
         <v>27</v>
       </c>
       <c r="K245">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="246">
@@ -9827,7 +9827,7 @@
         <v>27</v>
       </c>
       <c r="K246">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="247">
@@ -10003,7 +10003,7 @@
         <v>24</v>
       </c>
       <c r="K251">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="252">
@@ -10077,7 +10077,7 @@
         <v>24</v>
       </c>
       <c r="K253">
-        <v>54.16666666666666</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="254">
@@ -10163,7 +10163,7 @@
         <v>27</v>
       </c>
       <c r="K255">
-        <v>14.81481481481481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="256">
@@ -10308,7 +10308,7 @@
         <v>27</v>
       </c>
       <c r="K259">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="260">
@@ -10351,7 +10351,7 @@
         <v>27</v>
       </c>
       <c r="K260">
-        <v>14.81481481481481</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="261">
@@ -10394,7 +10394,7 @@
         <v>27</v>
       </c>
       <c r="K261">
-        <v>11.11111111111111</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="262">
@@ -10437,7 +10437,7 @@
         <v>27</v>
       </c>
       <c r="K262">
-        <v>25.92592592592592</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="263">
@@ -10480,7 +10480,7 @@
         <v>27</v>
       </c>
       <c r="K263">
-        <v>29.62962962962963</v>
+        <v>29.63</v>
       </c>
     </row>
     <row r="264">
@@ -10523,7 +10523,7 @@
         <v>24</v>
       </c>
       <c r="K264">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="265">
@@ -10761,7 +10761,7 @@
         <v>24</v>
       </c>
       <c r="K271">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="272">
@@ -10804,7 +10804,7 @@
         <v>24</v>
       </c>
       <c r="K272">
-        <v>66.66666666666666</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="273">
@@ -10847,7 +10847,7 @@
         <v>27</v>
       </c>
       <c r="K273">
-        <v>55.55555555555556</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="274">
@@ -11085,7 +11085,7 @@
         <v>27</v>
       </c>
       <c r="K280">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="281">
@@ -11128,7 +11128,7 @@
         <v>27</v>
       </c>
       <c r="K281">
-        <v>37.03703703703704</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="282">
@@ -11347,7 +11347,7 @@
         <v>24</v>
       </c>
       <c r="K287">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="288">
@@ -11390,7 +11390,7 @@
         <v>24</v>
       </c>
       <c r="K288">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="289">
@@ -11507,7 +11507,7 @@
         <v>27</v>
       </c>
       <c r="K291">
-        <v>44.44444444444444</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="292">
@@ -11652,7 +11652,7 @@
         <v>27</v>
       </c>
       <c r="K295">
-        <v>7.407407407407407</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="296">
@@ -11695,7 +11695,7 @@
         <v>27</v>
       </c>
       <c r="K296">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="297">
@@ -11738,7 +11738,7 @@
         <v>27</v>
       </c>
       <c r="K297">
-        <v>18.51851851851852</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="298">
@@ -11812,7 +11812,7 @@
         <v>27</v>
       </c>
       <c r="K299">
-        <v>25.92592592592592</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="300">
@@ -11855,7 +11855,7 @@
         <v>24</v>
       </c>
       <c r="K300">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="301">
@@ -12062,7 +12062,7 @@
         <v>24</v>
       </c>
       <c r="K306">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="307">
@@ -12179,7 +12179,7 @@
         <v>27</v>
       </c>
       <c r="K309">
-        <v>62.96296296296296</v>
+        <v>62.96</v>
       </c>
     </row>
     <row r="310">
@@ -12386,7 +12386,7 @@
         <v>27</v>
       </c>
       <c r="K315">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="316">
@@ -12460,7 +12460,7 @@
         <v>27</v>
       </c>
       <c r="K317">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="318">
@@ -12667,7 +12667,7 @@
         <v>24</v>
       </c>
       <c r="K323">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="324">
@@ -12741,7 +12741,7 @@
         <v>24</v>
       </c>
       <c r="K325">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="326">
@@ -12781,7 +12781,7 @@
         <v>27</v>
       </c>
       <c r="K326">
-        <v>51.85185185185185</v>
+        <v>51.85</v>
       </c>
     </row>
     <row r="327">
@@ -12917,7 +12917,7 @@
         <v>27</v>
       </c>
       <c r="K330">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="331">
@@ -12960,7 +12960,7 @@
         <v>27</v>
       </c>
       <c r="K331">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="332">
@@ -13034,7 +13034,7 @@
         <v>27</v>
       </c>
       <c r="K333">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="334">
@@ -13077,7 +13077,7 @@
         <v>24</v>
       </c>
       <c r="K334">
-        <v>29.16666666666667</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="335">
@@ -13253,7 +13253,7 @@
         <v>24</v>
       </c>
       <c r="K339">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="340">
@@ -13296,7 +13296,7 @@
         <v>24</v>
       </c>
       <c r="K340">
-        <v>8.333333333333332</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="341">
@@ -13370,7 +13370,7 @@
         <v>24</v>
       </c>
       <c r="K342">
-        <v>58.33333333333334</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="343">
@@ -13410,7 +13410,7 @@
         <v>24</v>
       </c>
       <c r="K343">
-        <v>45.83333333333333</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="344">
@@ -13546,7 +13546,7 @@
         <v>24</v>
       </c>
       <c r="K347">
-        <v>4.166666666666666</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="348">
@@ -13589,7 +13589,7 @@
         <v>24</v>
       </c>
       <c r="K348">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="349">
@@ -13663,7 +13663,7 @@
         <v>24</v>
       </c>
       <c r="K350">
-        <v>33.33333333333333</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="351">
@@ -13703,7 +13703,7 @@
         <v>27</v>
       </c>
       <c r="K351">
-        <v>48.14814814814815</v>
+        <v>48.15</v>
       </c>
     </row>
     <row r="352">
@@ -13808,7 +13808,7 @@
         <v>27</v>
       </c>
       <c r="K354">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="355">
@@ -13851,7 +13851,7 @@
         <v>27</v>
       </c>
       <c r="K355">
-        <v>3.703703703703703</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="356">
@@ -13894,7 +13894,7 @@
         <v>27</v>
       </c>
       <c r="K356">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="357">
@@ -13968,7 +13968,7 @@
         <v>27</v>
       </c>
       <c r="K358">
-        <v>22.22222222222222</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="359">
@@ -14008,7 +14008,7 @@
         <v>102</v>
       </c>
       <c r="K359">
-        <v>22.54901960784314</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="360">
@@ -14144,7 +14144,7 @@
         <v>102</v>
       </c>
       <c r="K363">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="364">
@@ -14187,7 +14187,7 @@
         <v>102</v>
       </c>
       <c r="K364">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="365">
@@ -14230,7 +14230,7 @@
         <v>102</v>
       </c>
       <c r="K365">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="366">
@@ -14273,7 +14273,7 @@
         <v>102</v>
       </c>
       <c r="K366">
-        <v>55.88235294117647</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="367">
@@ -14418,7 +14418,7 @@
         <v>112</v>
       </c>
       <c r="K370">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="371">
@@ -14461,7 +14461,7 @@
         <v>112</v>
       </c>
       <c r="K371">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="372">
@@ -14504,7 +14504,7 @@
         <v>112</v>
       </c>
       <c r="K372">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="373">
@@ -14547,7 +14547,7 @@
         <v>112</v>
       </c>
       <c r="K373">
-        <v>8.928571428571429</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="374">
@@ -14590,7 +14590,7 @@
         <v>112</v>
       </c>
       <c r="K374">
-        <v>47.32142857142857</v>
+        <v>47.32</v>
       </c>
     </row>
     <row r="375">
@@ -14630,7 +14630,7 @@
         <v>102</v>
       </c>
       <c r="K375">
-        <v>8.823529411764707</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="376">
@@ -14673,7 +14673,7 @@
         <v>102</v>
       </c>
       <c r="K376">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="377">
@@ -14747,7 +14747,7 @@
         <v>102</v>
       </c>
       <c r="K378">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="379">
@@ -14790,7 +14790,7 @@
         <v>102</v>
       </c>
       <c r="K379">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="380">
@@ -14833,7 +14833,7 @@
         <v>102</v>
       </c>
       <c r="K380">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="381">
@@ -14876,7 +14876,7 @@
         <v>102</v>
       </c>
       <c r="K381">
-        <v>17.64705882352941</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="382">
@@ -14919,7 +14919,7 @@
         <v>102</v>
       </c>
       <c r="K382">
-        <v>57.84313725490197</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="383">
@@ -14962,7 +14962,7 @@
         <v>112</v>
       </c>
       <c r="K383">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="384">
@@ -15045,7 +15045,7 @@
         <v>112</v>
       </c>
       <c r="K385">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="386">
@@ -15119,7 +15119,7 @@
         <v>112</v>
       </c>
       <c r="K387">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="388">
@@ -15162,7 +15162,7 @@
         <v>112</v>
       </c>
       <c r="K388">
-        <v>8.035714285714286</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="389">
@@ -15205,7 +15205,7 @@
         <v>112</v>
       </c>
       <c r="K389">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="390">
@@ -15248,7 +15248,7 @@
         <v>112</v>
       </c>
       <c r="K390">
-        <v>16.07142857142857</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="391">
@@ -15291,7 +15291,7 @@
         <v>112</v>
       </c>
       <c r="K391">
-        <v>55.35714285714286</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="392">
@@ -15334,7 +15334,7 @@
         <v>102</v>
       </c>
       <c r="K392">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="393">
@@ -15448,7 +15448,7 @@
         <v>102</v>
       </c>
       <c r="K395">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="396">
@@ -15491,7 +15491,7 @@
         <v>102</v>
       </c>
       <c r="K396">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="397">
@@ -15534,7 +15534,7 @@
         <v>102</v>
       </c>
       <c r="K397">
-        <v>4.901960784313726</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="398">
@@ -15577,7 +15577,7 @@
         <v>102</v>
       </c>
       <c r="K398">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="399">
@@ -15620,7 +15620,7 @@
         <v>102</v>
       </c>
       <c r="K399">
-        <v>21.56862745098039</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="400">
@@ -15663,7 +15663,7 @@
         <v>102</v>
       </c>
       <c r="K400">
-        <v>58.82352941176471</v>
+        <v>58.82</v>
       </c>
     </row>
     <row r="401">
@@ -15706,7 +15706,7 @@
         <v>112</v>
       </c>
       <c r="K401">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="402">
@@ -15820,7 +15820,7 @@
         <v>112</v>
       </c>
       <c r="K404">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="405">
@@ -15863,7 +15863,7 @@
         <v>112</v>
       </c>
       <c r="K405">
-        <v>4.464285714285714</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="406">
@@ -15906,7 +15906,7 @@
         <v>112</v>
       </c>
       <c r="K406">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="407">
@@ -15949,7 +15949,7 @@
         <v>112</v>
       </c>
       <c r="K407">
-        <v>9.821428571428571</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="408">
@@ -15992,7 +15992,7 @@
         <v>112</v>
       </c>
       <c r="K408">
-        <v>11.60714285714286</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="409">
@@ -16078,7 +16078,7 @@
         <v>102</v>
       </c>
       <c r="K410">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="411">
@@ -16161,7 +16161,7 @@
         <v>102</v>
       </c>
       <c r="K412">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="413">
@@ -16235,7 +16235,7 @@
         <v>102</v>
       </c>
       <c r="K414">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="415">
@@ -16278,7 +16278,7 @@
         <v>102</v>
       </c>
       <c r="K415">
-        <v>6.862745098039216</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="416">
@@ -16321,7 +16321,7 @@
         <v>102</v>
       </c>
       <c r="K416">
-        <v>4.901960784313726</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="417">
@@ -16364,7 +16364,7 @@
         <v>102</v>
       </c>
       <c r="K417">
-        <v>25.49019607843137</v>
+        <v>25.49</v>
       </c>
     </row>
     <row r="418">
@@ -16407,7 +16407,7 @@
         <v>102</v>
       </c>
       <c r="K418">
-        <v>55.88235294117647</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="419">
@@ -16450,7 +16450,7 @@
         <v>112</v>
       </c>
       <c r="K419">
-        <v>3.571428571428571</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="420">
@@ -16564,7 +16564,7 @@
         <v>112</v>
       </c>
       <c r="K422">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="423">
@@ -16607,7 +16607,7 @@
         <v>112</v>
       </c>
       <c r="K423">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="424">
@@ -16650,7 +16650,7 @@
         <v>112</v>
       </c>
       <c r="K424">
-        <v>8.035714285714286</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="425">
@@ -16693,7 +16693,7 @@
         <v>112</v>
       </c>
       <c r="K425">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="426">
@@ -16736,7 +16736,7 @@
         <v>112</v>
       </c>
       <c r="K426">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="427">
@@ -16779,7 +16779,7 @@
         <v>112</v>
       </c>
       <c r="K427">
-        <v>61.60714285714286</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="428">
@@ -16822,7 +16822,7 @@
         <v>102</v>
       </c>
       <c r="K428">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="429">
@@ -16967,7 +16967,7 @@
         <v>102</v>
       </c>
       <c r="K432">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="433">
@@ -17010,7 +17010,7 @@
         <v>102</v>
       </c>
       <c r="K433">
-        <v>7.84313725490196</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="434">
@@ -17053,7 +17053,7 @@
         <v>102</v>
       </c>
       <c r="K434">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="435">
@@ -17096,7 +17096,7 @@
         <v>102</v>
       </c>
       <c r="K435">
-        <v>29.41176470588236</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="436">
@@ -17139,7 +17139,7 @@
         <v>102</v>
       </c>
       <c r="K436">
-        <v>51.9607843137255</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="437">
@@ -17182,7 +17182,7 @@
         <v>112</v>
       </c>
       <c r="K437">
-        <v>7.142857142857142</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="438">
@@ -17296,7 +17296,7 @@
         <v>112</v>
       </c>
       <c r="K440">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="441">
@@ -17339,7 +17339,7 @@
         <v>112</v>
       </c>
       <c r="K441">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="442">
@@ -17382,7 +17382,7 @@
         <v>112</v>
       </c>
       <c r="K442">
-        <v>10.71428571428571</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="443">
@@ -17425,7 +17425,7 @@
         <v>112</v>
       </c>
       <c r="K443">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="444">
@@ -17468,7 +17468,7 @@
         <v>112</v>
       </c>
       <c r="K444">
-        <v>13.39285714285714</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="445">
@@ -17511,7 +17511,7 @@
         <v>112</v>
       </c>
       <c r="K445">
-        <v>58.92857142857143</v>
+        <v>58.93</v>
       </c>
     </row>
     <row r="446">
@@ -17554,7 +17554,7 @@
         <v>102</v>
       </c>
       <c r="K446">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="447">
@@ -17668,7 +17668,7 @@
         <v>102</v>
       </c>
       <c r="K449">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="450">
@@ -17742,7 +17742,7 @@
         <v>102</v>
       </c>
       <c r="K451">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="452">
@@ -17816,7 +17816,7 @@
         <v>102</v>
       </c>
       <c r="K453">
-        <v>16.66666666666666</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="454">
@@ -17859,7 +17859,7 @@
         <v>102</v>
       </c>
       <c r="K454">
-        <v>62.74509803921568</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="455">
@@ -17902,7 +17902,7 @@
         <v>112</v>
       </c>
       <c r="K455">
-        <v>20.53571428571428</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="456">
@@ -18016,7 +18016,7 @@
         <v>112</v>
       </c>
       <c r="K458">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="459">
@@ -18090,7 +18090,7 @@
         <v>112</v>
       </c>
       <c r="K460">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="461">
@@ -18164,7 +18164,7 @@
         <v>112</v>
       </c>
       <c r="K462">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="463">
@@ -18207,7 +18207,7 @@
         <v>112</v>
       </c>
       <c r="K463">
-        <v>61.60714285714286</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="464">
@@ -18250,7 +18250,7 @@
         <v>102</v>
       </c>
       <c r="K464">
-        <v>37.25490196078432</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="465">
@@ -18395,7 +18395,7 @@
         <v>102</v>
       </c>
       <c r="K468">
-        <v>2.941176470588235</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="469">
@@ -18438,7 +18438,7 @@
         <v>102</v>
       </c>
       <c r="K469">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="470">
@@ -18481,7 +18481,7 @@
         <v>102</v>
       </c>
       <c r="K470">
-        <v>17.64705882352941</v>
+        <v>17.65</v>
       </c>
     </row>
     <row r="471">
@@ -18555,7 +18555,7 @@
         <v>102</v>
       </c>
       <c r="K472">
-        <v>41.17647058823529</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="473">
@@ -18598,7 +18598,7 @@
         <v>112</v>
       </c>
       <c r="K473">
-        <v>21.42857142857143</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="474">
@@ -18743,7 +18743,7 @@
         <v>112</v>
       </c>
       <c r="K477">
-        <v>5.357142857142857</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="478">
@@ -18786,7 +18786,7 @@
         <v>112</v>
       </c>
       <c r="K478">
-        <v>1.785714285714286</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="479">
@@ -18829,7 +18829,7 @@
         <v>112</v>
       </c>
       <c r="K479">
-        <v>16.96428571428572</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="480">
@@ -18903,7 +18903,7 @@
         <v>112</v>
       </c>
       <c r="K481">
-        <v>54.46428571428571</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="482">
@@ -18946,7 +18946,7 @@
         <v>102</v>
       </c>
       <c r="K482">
-        <v>29.41176470588236</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="483">
@@ -19091,7 +19091,7 @@
         <v>102</v>
       </c>
       <c r="K486">
-        <v>1.96078431372549</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="487">
@@ -19165,7 +19165,7 @@
         <v>102</v>
       </c>
       <c r="K488">
-        <v>14.70588235294118</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="489">
@@ -19239,7 +19239,7 @@
         <v>102</v>
       </c>
       <c r="K490">
-        <v>53.92156862745098</v>
+        <v>53.92</v>
       </c>
     </row>
     <row r="491">
@@ -19282,7 +19282,7 @@
         <v>112</v>
       </c>
       <c r="K491">
-        <v>33.03571428571428</v>
+        <v>33.04</v>
       </c>
     </row>
     <row r="492">
@@ -19427,7 +19427,7 @@
         <v>112</v>
       </c>
       <c r="K495">
-        <v>4.464285714285714</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="496">
@@ -19615,7 +19615,7 @@
         <v>102</v>
       </c>
       <c r="K500">
-        <v>51.9607843137255</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="501">
@@ -19720,7 +19720,7 @@
         <v>102</v>
       </c>
       <c r="K503">
-        <v>4.901960784313726</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="504">
@@ -19763,7 +19763,7 @@
         <v>102</v>
       </c>
       <c r="K504">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="505">
@@ -19806,7 +19806,7 @@
         <v>102</v>
       </c>
       <c r="K505">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="506">
@@ -19880,7 +19880,7 @@
         <v>102</v>
       </c>
       <c r="K507">
-        <v>30.3921568627451</v>
+        <v>30.39</v>
       </c>
     </row>
     <row r="508">
@@ -19923,7 +19923,7 @@
         <v>112</v>
       </c>
       <c r="K508">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="509">
@@ -20068,7 +20068,7 @@
         <v>112</v>
       </c>
       <c r="K512">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="513">
@@ -20111,7 +20111,7 @@
         <v>112</v>
       </c>
       <c r="K513">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="514">
@@ -20154,7 +20154,7 @@
         <v>112</v>
       </c>
       <c r="K514">
-        <v>14.28571428571428</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="515">
@@ -20271,7 +20271,7 @@
         <v>102</v>
       </c>
       <c r="K517">
-        <v>51.9607843137255</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="518">
@@ -20416,7 +20416,7 @@
         <v>102</v>
       </c>
       <c r="K521">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="522">
@@ -20459,7 +20459,7 @@
         <v>102</v>
       </c>
       <c r="K522">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="523">
@@ -20502,7 +20502,7 @@
         <v>102</v>
       </c>
       <c r="K523">
-        <v>5.88235294117647</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="524">
@@ -20576,7 +20576,7 @@
         <v>102</v>
       </c>
       <c r="K525">
-        <v>40.19607843137255</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="526">
@@ -20616,7 +20616,7 @@
         <v>102</v>
       </c>
       <c r="K526">
-        <v>32.35294117647059</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="527">
@@ -20721,7 +20721,7 @@
         <v>102</v>
       </c>
       <c r="K529">
-        <v>3.92156862745098</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="530">
@@ -20764,7 +20764,7 @@
         <v>102</v>
       </c>
       <c r="K530">
-        <v>0.9803921568627451</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="531">
@@ -20807,7 +20807,7 @@
         <v>102</v>
       </c>
       <c r="K531">
-        <v>11.76470588235294</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="532">
@@ -20881,7 +20881,7 @@
         <v>102</v>
       </c>
       <c r="K533">
-        <v>50.98039215686274</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="534">
@@ -20924,7 +20924,7 @@
         <v>112</v>
       </c>
       <c r="K534">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="535">
@@ -20964,7 +20964,7 @@
         <v>112</v>
       </c>
       <c r="K535">
-        <v>28.57142857142857</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="536">
@@ -21069,7 +21069,7 @@
         <v>112</v>
       </c>
       <c r="K538">
-        <v>2.678571428571428</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="539">
@@ -21112,7 +21112,7 @@
         <v>112</v>
       </c>
       <c r="K539">
-        <v>0.8928571428571428</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="540">
@@ -21229,7 +21229,7 @@
         <v>112</v>
       </c>
       <c r="K542">
-        <v>60.71428571428571</v>
+        <v>60.71</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -12076,7 +12076,7 @@
         </is>
       </c>
       <c r="E305">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F305">
         <v>99</v>
@@ -12094,7 +12094,7 @@
         <v>99</v>
       </c>
       <c r="K305">
-        <v>100</v>
+        <v>87.88</v>
       </c>
     </row>
     <row r="306">
@@ -12252,13 +12252,25 @@
         </is>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F310">
         <v>99</v>
       </c>
+      <c r="G310">
+        <v>99</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>99</v>
+      </c>
       <c r="K310">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="311">
@@ -12283,13 +12295,25 @@
         </is>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F311">
         <v>99</v>
       </c>
+      <c r="G311">
+        <v>99</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>99</v>
+      </c>
       <c r="K311">
-        <v>0</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="312">
@@ -12345,13 +12369,25 @@
         </is>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313">
         <v>99</v>
       </c>
+      <c r="G313">
+        <v>99</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>99</v>
+      </c>
       <c r="K313">
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="314">
@@ -23422,7 +23458,7 @@
         </is>
       </c>
       <c r="E611">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F611">
         <v>27</v>
@@ -23440,7 +23476,7 @@
         <v>27</v>
       </c>
       <c r="K611">
-        <v>100</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="612">
@@ -23691,13 +23727,25 @@
         </is>
       </c>
       <c r="E619">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F619">
         <v>27</v>
       </c>
+      <c r="G619">
+        <v>27</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
+      </c>
+      <c r="I619">
+        <v>0</v>
+      </c>
+      <c r="J619">
+        <v>27</v>
+      </c>
       <c r="K619">
-        <v>0</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="620">
@@ -35642,7 +35690,7 @@
         </is>
       </c>
       <c r="E927">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F927">
         <v>117</v>
@@ -35660,7 +35708,7 @@
         <v>117</v>
       </c>
       <c r="K927">
-        <v>100</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="928">
@@ -35849,13 +35897,25 @@
         </is>
       </c>
       <c r="E933">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F933">
         <v>117</v>
       </c>
+      <c r="G933">
+        <v>117</v>
+      </c>
+      <c r="H933">
+        <v>0</v>
+      </c>
+      <c r="I933">
+        <v>0</v>
+      </c>
+      <c r="J933">
+        <v>117</v>
+      </c>
       <c r="K933">
-        <v>0</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="934">
@@ -35911,13 +35971,25 @@
         </is>
       </c>
       <c r="E935">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F935">
         <v>117</v>
       </c>
+      <c r="G935">
+        <v>117</v>
+      </c>
+      <c r="H935">
+        <v>0</v>
+      </c>
+      <c r="I935">
+        <v>0</v>
+      </c>
+      <c r="J935">
+        <v>117</v>
+      </c>
       <c r="K935">
-        <v>0</v>
+        <v>21.37</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -7179,7 +7179,7 @@
         </is>
       </c>
       <c r="E175">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F175">
         <v>99</v>
@@ -7197,7 +7197,7 @@
         <v>99</v>
       </c>
       <c r="K175">
-        <v>100</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="176">
@@ -7355,13 +7355,25 @@
         </is>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F180">
         <v>99</v>
       </c>
+      <c r="G180">
+        <v>99</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>99</v>
+      </c>
       <c r="K180">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="181">
@@ -7417,13 +7429,25 @@
         </is>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F182">
         <v>99</v>
       </c>
+      <c r="G182">
+        <v>99</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>99</v>
+      </c>
       <c r="K182">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="183">
@@ -7448,13 +7472,25 @@
         </is>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F183">
         <v>99</v>
       </c>
+      <c r="G183">
+        <v>99</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>99</v>
+      </c>
       <c r="K183">
-        <v>0</v>
+        <v>35.35</v>
       </c>
     </row>
     <row r="184">
@@ -8163,7 +8199,7 @@
         </is>
       </c>
       <c r="E202">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="F202">
         <v>99</v>
@@ -8181,7 +8217,7 @@
         <v>99</v>
       </c>
       <c r="K202">
-        <v>100</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="203">
@@ -8339,13 +8375,25 @@
         </is>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F207">
         <v>99</v>
       </c>
+      <c r="G207">
+        <v>99</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>99</v>
+      </c>
       <c r="K207">
-        <v>0</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="208">
@@ -8401,13 +8449,25 @@
         </is>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F209">
         <v>99</v>
       </c>
+      <c r="G209">
+        <v>99</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>99</v>
+      </c>
       <c r="K209">
-        <v>0</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="210">
@@ -8432,13 +8492,25 @@
         </is>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F210">
         <v>99</v>
       </c>
+      <c r="G210">
+        <v>99</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>99</v>
+      </c>
       <c r="K210">
-        <v>0</v>
+        <v>58.59</v>
       </c>
     </row>
     <row r="211">
@@ -18755,7 +18827,7 @@
         </is>
       </c>
       <c r="E483">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F483">
         <v>27</v>
@@ -18773,7 +18845,7 @@
         <v>27</v>
       </c>
       <c r="K483">
-        <v>100</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="484">
@@ -18993,13 +19065,25 @@
         </is>
       </c>
       <c r="E490">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F490">
         <v>27</v>
       </c>
+      <c r="G490">
+        <v>27</v>
+      </c>
+      <c r="H490">
+        <v>0</v>
+      </c>
+      <c r="I490">
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <v>27</v>
+      </c>
       <c r="K490">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="491">
@@ -19024,13 +19108,25 @@
         </is>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F491">
         <v>27</v>
       </c>
+      <c r="G491">
+        <v>27</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
+      </c>
+      <c r="I491">
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <v>27</v>
+      </c>
       <c r="K491">
-        <v>0</v>
+        <v>40.74</v>
       </c>
     </row>
     <row r="492">
@@ -19703,7 +19799,7 @@
         </is>
       </c>
       <c r="E510">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F510">
         <v>27</v>
@@ -19721,7 +19817,7 @@
         <v>27</v>
       </c>
       <c r="K510">
-        <v>100</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="511">
@@ -19941,13 +20037,25 @@
         </is>
       </c>
       <c r="E517">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F517">
         <v>27</v>
       </c>
+      <c r="G517">
+        <v>27</v>
+      </c>
+      <c r="H517">
+        <v>0</v>
+      </c>
+      <c r="I517">
+        <v>0</v>
+      </c>
+      <c r="J517">
+        <v>27</v>
+      </c>
       <c r="K517">
-        <v>0</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="518">
@@ -19972,13 +20080,25 @@
         </is>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F518">
         <v>27</v>
       </c>
+      <c r="G518">
+        <v>27</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>27</v>
+      </c>
       <c r="K518">
-        <v>0</v>
+        <v>85.19</v>
       </c>
     </row>
     <row r="519">
@@ -23751,7 +23871,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -23791,7 +23911,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -23822,7 +23942,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -23853,7 +23973,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -23884,7 +24004,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -23927,7 +24047,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -23970,7 +24090,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -24013,7 +24133,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -24056,7 +24176,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -24096,7 +24216,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -24127,7 +24247,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -24158,7 +24278,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -24201,7 +24321,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -24244,7 +24364,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -24287,7 +24407,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -24330,7 +24450,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -24373,7 +24493,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -24413,7 +24533,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -24456,7 +24576,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -24487,7 +24607,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -24530,7 +24650,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -24573,7 +24693,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -24616,7 +24736,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -24659,7 +24779,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -24702,7 +24822,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -24742,7 +24862,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -24785,7 +24905,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -24816,7 +24936,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -24859,7 +24979,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -24902,7 +25022,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -24945,7 +25065,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -24988,7 +25108,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -25031,7 +25151,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -25074,7 +25194,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -25114,7 +25234,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -25157,7 +25277,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -25188,7 +25308,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -25231,7 +25351,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -25274,7 +25394,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -25317,7 +25437,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -25360,7 +25480,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -25403,7 +25523,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -25443,7 +25563,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -25486,7 +25606,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -25517,7 +25637,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -25560,7 +25680,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -25603,7 +25723,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -25646,7 +25766,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -25689,7 +25809,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -25732,7 +25852,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -25775,7 +25895,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -25815,7 +25935,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -25846,7 +25966,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -25877,7 +25997,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -25920,7 +26040,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -25951,7 +26071,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -25994,7 +26114,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -26025,7 +26145,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -26068,7 +26188,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -26111,7 +26231,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -26151,7 +26271,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -26182,7 +26302,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -26213,7 +26333,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -26256,7 +26376,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -26287,7 +26407,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -26330,7 +26450,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -26361,7 +26481,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -26404,7 +26524,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -26447,7 +26567,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -26487,7 +26607,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -26518,7 +26638,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -26549,7 +26669,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -26580,7 +26700,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -26611,7 +26731,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -26654,7 +26774,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -26685,7 +26805,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -26728,7 +26848,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -26771,7 +26891,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -26811,7 +26931,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -26842,7 +26962,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -26885,7 +27005,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -26928,7 +27048,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -26971,7 +27091,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -27014,7 +27134,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -27057,7 +27177,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -27100,7 +27220,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -27143,7 +27263,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -27183,7 +27303,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -27214,7 +27334,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -27257,7 +27377,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -27300,7 +27420,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -27343,7 +27463,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -27386,7 +27506,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -27429,7 +27549,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -27472,7 +27592,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -27515,7 +27635,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -27555,7 +27675,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -27586,7 +27706,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -27617,7 +27737,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -27660,7 +27780,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -27703,7 +27823,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -27734,7 +27854,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -27777,7 +27897,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -27820,7 +27940,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -27863,7 +27983,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -27903,7 +28023,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -27946,7 +28066,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -27977,7 +28097,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -28020,7 +28140,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -28063,7 +28183,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -28106,7 +28226,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -28149,7 +28269,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -28192,7 +28312,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -28235,7 +28355,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -28275,7 +28395,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -28306,7 +28426,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -28349,7 +28469,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -28392,7 +28512,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -28435,7 +28555,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -28478,7 +28598,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -28521,7 +28641,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -28564,7 +28684,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -28607,7 +28727,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -28647,7 +28767,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -28678,7 +28798,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -28709,7 +28829,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -28740,7 +28860,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -28783,7 +28903,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -28814,7 +28934,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -28857,7 +28977,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -28900,7 +29020,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -28943,7 +29063,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -28983,7 +29103,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -29014,7 +29134,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -29045,7 +29165,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -29088,7 +29208,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -29131,7 +29251,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -29174,7 +29294,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -29217,7 +29337,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -29260,7 +29380,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -29303,7 +29423,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -29343,7 +29463,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -29374,7 +29494,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -29417,7 +29537,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -29460,7 +29580,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -29503,7 +29623,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -29546,7 +29666,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -29589,7 +29709,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -29632,7 +29752,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -29675,7 +29795,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -29715,7 +29835,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -29746,7 +29866,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -29777,7 +29897,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -29808,7 +29928,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -29851,7 +29971,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -29882,7 +30002,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -29925,7 +30045,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -29968,7 +30088,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -30011,7 +30131,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -30051,7 +30171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -30082,7 +30202,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -30113,7 +30233,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -30144,7 +30264,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -30187,7 +30307,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -30218,7 +30338,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -30261,7 +30381,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -30304,7 +30424,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -30347,7 +30467,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -30387,7 +30507,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -30418,7 +30538,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -30449,7 +30569,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -30480,7 +30600,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -30523,7 +30643,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -30554,7 +30674,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -30597,7 +30717,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -30640,7 +30760,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -30659,7 +30779,7 @@
         </is>
       </c>
       <c r="E795">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="F795">
         <v>117</v>
@@ -30677,13 +30797,13 @@
         <v>117</v>
       </c>
       <c r="K795">
-        <v>100</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -30723,7 +30843,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -30754,7 +30874,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -30785,7 +30905,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -30816,7 +30936,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -30847,7 +30967,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -30878,7 +30998,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -30897,19 +31017,31 @@
         </is>
       </c>
       <c r="E802">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F802">
         <v>117</v>
       </c>
+      <c r="G802">
+        <v>117</v>
+      </c>
+      <c r="H802">
+        <v>0</v>
+      </c>
+      <c r="I802">
+        <v>0</v>
+      </c>
+      <c r="J802">
+        <v>117</v>
+      </c>
       <c r="K802">
-        <v>0</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -30928,19 +31060,31 @@
         </is>
       </c>
       <c r="E803">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F803">
         <v>117</v>
       </c>
+      <c r="G803">
+        <v>117</v>
+      </c>
+      <c r="H803">
+        <v>0</v>
+      </c>
+      <c r="I803">
+        <v>0</v>
+      </c>
+      <c r="J803">
+        <v>117</v>
+      </c>
       <c r="K803">
-        <v>0</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -30983,7 +31127,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -31023,7 +31167,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -31054,7 +31198,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -31097,7 +31241,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -31128,7 +31272,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -31171,7 +31315,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -31202,7 +31346,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -31245,7 +31389,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -31288,7 +31432,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -31331,7 +31475,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -31371,7 +31515,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -31402,7 +31546,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -31445,7 +31589,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -31476,7 +31620,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -31519,7 +31663,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -31550,7 +31694,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
@@ -31593,7 +31737,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
@@ -31636,7 +31780,7 @@
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B822" t="inlineStr">
@@ -31655,7 +31799,7 @@
         </is>
       </c>
       <c r="E822">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="F822">
         <v>117</v>
@@ -31673,13 +31817,13 @@
         <v>117</v>
       </c>
       <c r="K822">
-        <v>100</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B823" t="inlineStr">
@@ -31719,7 +31863,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B824" t="inlineStr">
@@ -31750,7 +31894,7 @@
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B825" t="inlineStr">
@@ -31781,7 +31925,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
@@ -31812,7 +31956,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
@@ -31831,19 +31975,31 @@
         </is>
       </c>
       <c r="E827">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F827">
         <v>117</v>
       </c>
+      <c r="G827">
+        <v>117</v>
+      </c>
+      <c r="H827">
+        <v>0</v>
+      </c>
+      <c r="I827">
+        <v>0</v>
+      </c>
+      <c r="J827">
+        <v>117</v>
+      </c>
       <c r="K827">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B828" t="inlineStr">
@@ -31874,7 +32030,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B829" t="inlineStr">
@@ -31893,19 +32049,31 @@
         </is>
       </c>
       <c r="E829">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F829">
         <v>117</v>
       </c>
+      <c r="G829">
+        <v>117</v>
+      </c>
+      <c r="H829">
+        <v>0</v>
+      </c>
+      <c r="I829">
+        <v>0</v>
+      </c>
+      <c r="J829">
+        <v>117</v>
+      </c>
       <c r="K829">
-        <v>0</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B830" t="inlineStr">
@@ -31924,19 +32092,31 @@
         </is>
       </c>
       <c r="E830">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F830">
         <v>117</v>
       </c>
+      <c r="G830">
+        <v>117</v>
+      </c>
+      <c r="H830">
+        <v>0</v>
+      </c>
+      <c r="I830">
+        <v>0</v>
+      </c>
+      <c r="J830">
+        <v>117</v>
+      </c>
       <c r="K830">
-        <v>0</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B831" t="inlineStr">
@@ -31979,7 +32159,7 @@
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
@@ -32019,7 +32199,7 @@
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B833" t="inlineStr">
@@ -32050,7 +32230,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B834" t="inlineStr">
@@ -32093,7 +32273,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
@@ -32136,7 +32316,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
@@ -32179,7 +32359,7 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
@@ -32222,7 +32402,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
@@ -32265,7 +32445,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
@@ -32308,7 +32488,7 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
@@ -32351,7 +32531,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
@@ -32391,7 +32571,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B842" t="inlineStr">
@@ -32422,7 +32602,7 @@
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B843" t="inlineStr">
@@ -32453,7 +32633,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B844" t="inlineStr">
@@ -32496,7 +32676,7 @@
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B845" t="inlineStr">
@@ -32539,7 +32719,7 @@
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B846" t="inlineStr">
@@ -32582,7 +32762,7 @@
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B847" t="inlineStr">
@@ -32625,7 +32805,7 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
@@ -32668,7 +32848,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
@@ -32708,7 +32888,7 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
@@ -32739,7 +32919,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
@@ -32770,7 +32950,7 @@
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
@@ -32801,7 +32981,7 @@
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B853" t="inlineStr">
@@ -32844,7 +33024,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B854" t="inlineStr">
@@ -32887,7 +33067,7 @@
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B855" t="inlineStr">
@@ -32930,7 +33110,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
@@ -32973,7 +33153,7 @@
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B857" t="inlineStr">
@@ -33016,7 +33196,7 @@
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B858" t="inlineStr">
@@ -33056,7 +33236,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B859" t="inlineStr">
@@ -33087,7 +33267,7 @@
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B860" t="inlineStr">
@@ -33118,7 +33298,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B861" t="inlineStr">
@@ -33161,7 +33341,7 @@
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B862" t="inlineStr">
@@ -33204,7 +33384,7 @@
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B863" t="inlineStr">
@@ -33247,7 +33427,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B864" t="inlineStr">
@@ -33278,7 +33458,7 @@
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B865" t="inlineStr">
@@ -33321,7 +33501,7 @@
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B866" t="inlineStr">
@@ -33364,7 +33544,7 @@
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
@@ -33404,7 +33584,7 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
@@ -33435,7 +33615,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
@@ -33466,7 +33646,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
@@ -33509,7 +33689,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
@@ -33552,7 +33732,7 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
@@ -33595,7 +33775,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
@@ -33626,7 +33806,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
@@ -33669,7 +33849,7 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
@@ -33712,7 +33892,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
@@ -33752,7 +33932,7 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
@@ -33783,7 +33963,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
@@ -33814,7 +33994,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
@@ -33857,7 +34037,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
@@ -33900,7 +34080,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
@@ -33943,7 +34123,7 @@
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B882" t="inlineStr">
@@ -33974,7 +34154,7 @@
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
@@ -34017,7 +34197,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
@@ -34057,7 +34237,7 @@
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
@@ -34088,7 +34268,7 @@
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
@@ -34119,7 +34299,7 @@
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B887" t="inlineStr">
@@ -34162,7 +34342,7 @@
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B888" t="inlineStr">
@@ -34205,7 +34385,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B889" t="inlineStr">
@@ -34248,7 +34428,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B890" t="inlineStr">
@@ -34279,7 +34459,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B891" t="inlineStr">
@@ -34322,7 +34502,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
@@ -34365,7 +34545,7 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
@@ -34405,7 +34585,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
@@ -34436,7 +34616,7 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
@@ -34467,7 +34647,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
@@ -34510,7 +34690,7 @@
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B897" t="inlineStr">
@@ -34553,7 +34733,7 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B898" t="inlineStr">
@@ -34596,7 +34776,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B899" t="inlineStr">
@@ -34627,7 +34807,7 @@
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B900" t="inlineStr">
@@ -34670,7 +34850,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B901" t="inlineStr">
@@ -34710,7 +34890,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B902" t="inlineStr">
@@ -34741,7 +34921,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B903" t="inlineStr">
@@ -34772,7 +34952,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B904" t="inlineStr">
@@ -34815,7 +34995,7 @@
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B905" t="inlineStr">
@@ -34858,7 +35038,7 @@
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B906" t="inlineStr">
@@ -34901,7 +35081,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B907" t="inlineStr">
@@ -34932,7 +35112,7 @@
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B908" t="inlineStr">
@@ -34975,7 +35155,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B909" t="inlineStr">
@@ -35018,7 +35198,7 @@
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B910" t="inlineStr">
@@ -35058,7 +35238,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B911" t="inlineStr">
@@ -35089,7 +35269,7 @@
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B912" t="inlineStr">
@@ -35120,7 +35300,7 @@
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B913" t="inlineStr">
@@ -35163,7 +35343,7 @@
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B914" t="inlineStr">
@@ -35206,7 +35386,7 @@
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B915" t="inlineStr">
@@ -35249,7 +35429,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B916" t="inlineStr">
@@ -35280,7 +35460,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B917" t="inlineStr">
@@ -35323,7 +35503,7 @@
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B918" t="inlineStr">
@@ -35366,7 +35546,7 @@
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B919" t="inlineStr">
@@ -35406,7 +35586,7 @@
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B920" t="inlineStr">
@@ -35437,7 +35617,7 @@
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B921" t="inlineStr">
@@ -35468,7 +35648,7 @@
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B922" t="inlineStr">
@@ -35511,7 +35691,7 @@
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B923" t="inlineStr">
@@ -35554,7 +35734,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B924" t="inlineStr">
@@ -35597,7 +35777,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B925" t="inlineStr">
@@ -35628,7 +35808,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B926" t="inlineStr">
@@ -35671,7 +35851,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B927" t="inlineStr">
@@ -35714,7 +35894,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B928" t="inlineStr">
@@ -35754,7 +35934,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
@@ -35785,7 +35965,7 @@
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
@@ -35816,7 +35996,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B931" t="inlineStr">
@@ -35847,7 +36027,7 @@
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B932" t="inlineStr">
@@ -35878,7 +36058,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
@@ -35921,7 +36101,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
@@ -35952,7 +36132,7 @@
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>Rottnest</t>
+          <t>Wadjemup</t>
         </is>
       </c>
       <c r="B935" t="inlineStr">

--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="E104">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F104">
         <v>99</v>
@@ -4288,7 +4288,7 @@
         <v>99</v>
       </c>
       <c r="K104">
-        <v>20.2</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="105">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="E108">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F108">
         <v>99</v>
@@ -4445,7 +4445,7 @@
         <v>99</v>
       </c>
       <c r="K108">
-        <v>21.21</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="109">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="E109">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F109">
         <v>99</v>
@@ -4488,7 +4488,7 @@
         <v>99</v>
       </c>
       <c r="K109">
-        <v>16.16</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="110">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4513,7 +4513,7 @@
         </is>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F110">
         <v>99</v>
@@ -4531,7 +4531,7 @@
         <v>99</v>
       </c>
       <c r="K110">
-        <v>9.09</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="111">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111">
         <v>99</v>
@@ -4574,7 +4574,7 @@
         <v>99</v>
       </c>
       <c r="K111">
-        <v>14.14</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="112">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="E112">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F112">
         <v>99</v>
@@ -4617,7 +4617,7 @@
         <v>99</v>
       </c>
       <c r="K112">
-        <v>17.17</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="113">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="E113">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F113">
         <v>99</v>
@@ -4660,7 +4660,7 @@
         <v>99</v>
       </c>
       <c r="K113">
-        <v>15.15</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="114">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4725,25 +4725,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>99</v>
       </c>
-      <c r="G115">
-        <v>99</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>99</v>
-      </c>
       <c r="K115">
-        <v>1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4754,7 +4742,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4768,7 +4756,7 @@
         </is>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116">
         <v>99</v>
@@ -4786,7 +4774,7 @@
         <v>99</v>
       </c>
       <c r="K116">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="117">
@@ -4797,7 +4785,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4811,7 +4799,7 @@
         </is>
       </c>
       <c r="E117">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F117">
         <v>99</v>
@@ -4829,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="K117">
-        <v>34.34</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="118">
@@ -4840,7 +4828,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4854,7 +4842,7 @@
         </is>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F118">
         <v>99</v>
@@ -4872,7 +4860,7 @@
         <v>99</v>
       </c>
       <c r="K118">
-        <v>7.07</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="119">
@@ -4883,7 +4871,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4897,7 +4885,7 @@
         </is>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F119">
         <v>99</v>
@@ -4915,7 +4903,7 @@
         <v>99</v>
       </c>
       <c r="K119">
-        <v>6.06</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="120">
@@ -4926,7 +4914,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4940,7 +4928,7 @@
         </is>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F120">
         <v>99</v>
@@ -4958,7 +4946,7 @@
         <v>99</v>
       </c>
       <c r="K120">
-        <v>11.11</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="121">
@@ -4969,7 +4957,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4983,7 +4971,7 @@
         </is>
       </c>
       <c r="E121">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F121">
         <v>99</v>
@@ -5001,7 +4989,7 @@
         <v>99</v>
       </c>
       <c r="K121">
-        <v>23.23</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="122">
@@ -5012,7 +5000,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5026,7 +5014,7 @@
         </is>
       </c>
       <c r="E122">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F122">
         <v>99</v>
@@ -5044,7 +5032,7 @@
         <v>99</v>
       </c>
       <c r="K122">
-        <v>23.23</v>
+        <v>31.31</v>
       </c>
     </row>
     <row r="123">
@@ -5055,7 +5043,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5095,7 +5083,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5109,7 +5097,7 @@
         </is>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124">
         <v>99</v>
@@ -5127,7 +5115,7 @@
         <v>99</v>
       </c>
       <c r="K124">
-        <v>3.03</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="125">
@@ -5138,7 +5126,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5152,13 +5140,25 @@
         </is>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
         <v>99</v>
       </c>
+      <c r="G125">
+        <v>99</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>99</v>
+      </c>
       <c r="K125">
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="126">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5183,7 +5183,7 @@
         </is>
       </c>
       <c r="E126">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>99</v>
@@ -5201,7 +5201,7 @@
         <v>99</v>
       </c>
       <c r="K126">
-        <v>28.28</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="127">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="E127">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F127">
         <v>99</v>
@@ -5244,7 +5244,7 @@
         <v>99</v>
       </c>
       <c r="K127">
-        <v>22.22</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="128">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5269,25 +5269,13 @@
         </is>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>99</v>
       </c>
-      <c r="G128">
-        <v>99</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>99</v>
-      </c>
       <c r="K128">
-        <v>2.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5298,7 +5286,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5312,7 +5300,7 @@
         </is>
       </c>
       <c r="E129">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129">
         <v>99</v>
@@ -5330,7 +5318,7 @@
         <v>99</v>
       </c>
       <c r="K129">
-        <v>10.1</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="130">
@@ -5341,7 +5329,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -17336,7 +17324,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -17379,7 +17367,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -17419,7 +17407,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -17450,7 +17438,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -17481,7 +17469,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -17524,7 +17512,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -17555,7 +17543,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -17586,7 +17574,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -17617,7 +17605,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -17648,7 +17636,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -17691,7 +17679,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -17731,7 +17719,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -17762,7 +17750,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -17793,7 +17781,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -17836,7 +17824,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -17867,7 +17855,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -17898,7 +17886,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -17929,7 +17917,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -17960,7 +17948,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -18003,7 +17991,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -18043,7 +18031,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -18074,7 +18062,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -18105,7 +18093,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -18136,7 +18124,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -18167,7 +18155,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -18198,7 +18186,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -18229,7 +18217,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -18260,7 +18248,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -18274,7 +18262,7 @@
         </is>
       </c>
       <c r="E470">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F470">
         <v>24</v>
@@ -18292,7 +18280,7 @@
         <v>24</v>
       </c>
       <c r="K470">
-        <v>33.33</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="471">
@@ -18303,7 +18291,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -18343,7 +18331,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -18386,7 +18374,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -18417,7 +18405,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -18431,7 +18419,7 @@
         </is>
       </c>
       <c r="E474">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F474">
         <v>24</v>
@@ -18449,7 +18437,7 @@
         <v>24</v>
       </c>
       <c r="K474">
-        <v>16.67</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="475">
@@ -18460,7 +18448,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -18474,7 +18462,7 @@
         </is>
       </c>
       <c r="E475">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F475">
         <v>24</v>
@@ -18492,7 +18480,7 @@
         <v>24</v>
       </c>
       <c r="K475">
-        <v>8.33</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="476">
@@ -18503,7 +18491,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -18546,7 +18534,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -18589,7 +18577,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -18603,7 +18591,7 @@
         </is>
       </c>
       <c r="E478">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F478">
         <v>24</v>
@@ -18621,7 +18609,7 @@
         <v>24</v>
       </c>
       <c r="K478">
-        <v>8.33</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="479">
@@ -18632,7 +18620,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -18646,7 +18634,7 @@
         </is>
       </c>
       <c r="E479">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F479">
         <v>27</v>
@@ -18664,7 +18652,7 @@
         <v>27</v>
       </c>
       <c r="K479">
-        <v>14.81</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="480">
@@ -18675,7 +18663,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -18715,7 +18703,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -18746,7 +18734,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -18777,7 +18765,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -18791,7 +18779,7 @@
         </is>
       </c>
       <c r="E483">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F483">
         <v>27</v>
@@ -18809,7 +18797,7 @@
         <v>27</v>
       </c>
       <c r="K483">
-        <v>22.22</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="484">
@@ -18820,7 +18808,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -18834,7 +18822,7 @@
         </is>
       </c>
       <c r="E484">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F484">
         <v>27</v>
@@ -18852,7 +18840,7 @@
         <v>27</v>
       </c>
       <c r="K484">
-        <v>25.93</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="485">
@@ -18863,7 +18851,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -18877,25 +18865,13 @@
         </is>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F485">
         <v>27</v>
       </c>
-      <c r="G485">
-        <v>27</v>
-      </c>
-      <c r="H485">
-        <v>0</v>
-      </c>
-      <c r="I485">
-        <v>0</v>
-      </c>
-      <c r="J485">
-        <v>27</v>
-      </c>
       <c r="K485">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -18906,7 +18882,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -18920,7 +18896,7 @@
         </is>
       </c>
       <c r="E486">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F486">
         <v>27</v>
@@ -18938,7 +18914,7 @@
         <v>27</v>
       </c>
       <c r="K486">
-        <v>11.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="487">
@@ -18949,7 +18925,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -18992,7 +18968,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -19006,7 +18982,7 @@
         </is>
       </c>
       <c r="E488">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F488">
         <v>27</v>
@@ -19024,7 +19000,7 @@
         <v>27</v>
       </c>
       <c r="K488">
-        <v>14.81</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="489">
@@ -19035,7 +19011,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -19075,7 +19051,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -19118,7 +19094,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -19149,7 +19125,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -19163,7 +19139,7 @@
         </is>
       </c>
       <c r="E492">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F492">
         <v>27</v>
@@ -19181,7 +19157,7 @@
         <v>27</v>
       </c>
       <c r="K492">
-        <v>14.81</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="493">
@@ -19192,7 +19168,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -19235,7 +19211,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -19249,7 +19225,7 @@
         </is>
       </c>
       <c r="E494">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F494">
         <v>27</v>
@@ -19267,7 +19243,7 @@
         <v>27</v>
       </c>
       <c r="K494">
-        <v>11.11</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="495">
@@ -19278,7 +19254,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -19292,7 +19268,7 @@
         </is>
       </c>
       <c r="E495">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F495">
         <v>27</v>
@@ -19310,7 +19286,7 @@
         <v>27</v>
       </c>
       <c r="K495">
-        <v>11.11</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="496">
@@ -19321,7 +19297,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -19335,7 +19311,7 @@
         </is>
       </c>
       <c r="E496">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F496">
         <v>27</v>
@@ -19353,7 +19329,7 @@
         <v>27</v>
       </c>
       <c r="K496">
-        <v>40.74</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="497">
@@ -30957,7 +30933,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -31000,7 +30976,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -31040,7 +31016,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -31071,7 +31047,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -31102,7 +31078,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -31145,7 +31121,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -31176,7 +31152,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -31219,7 +31195,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -31250,7 +31226,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -31281,7 +31257,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -31324,7 +31300,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -31364,7 +31340,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -31395,7 +31371,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -31426,7 +31402,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -31469,7 +31445,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -31500,7 +31476,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -31543,7 +31519,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -31574,7 +31550,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -31605,7 +31581,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -31648,7 +31624,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -31688,7 +31664,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -31719,7 +31695,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -31750,7 +31726,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -31781,7 +31757,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -31812,7 +31788,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -31843,7 +31819,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -31874,7 +31850,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>DADA2_Species</t>
+          <t>DADA2Spec</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -31905,7 +31881,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -31919,7 +31895,7 @@
         </is>
       </c>
       <c r="E831">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F831">
         <v>102</v>
@@ -31937,7 +31913,7 @@
         <v>102</v>
       </c>
       <c r="K831">
-        <v>35.29</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="832">
@@ -31948,7 +31924,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -31988,7 +31964,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -32002,7 +31978,7 @@
         </is>
       </c>
       <c r="E833">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F833">
         <v>102</v>
@@ -32020,7 +31996,7 @@
         <v>102</v>
       </c>
       <c r="K833">
-        <v>0.98</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="834">
@@ -32031,7 +32007,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -32045,25 +32021,13 @@
         </is>
       </c>
       <c r="E834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F834">
         <v>102</v>
       </c>
-      <c r="G834">
-        <v>102</v>
-      </c>
-      <c r="H834">
-        <v>0</v>
-      </c>
-      <c r="I834">
-        <v>0</v>
-      </c>
-      <c r="J834">
-        <v>102</v>
-      </c>
       <c r="K834">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835">
@@ -32074,7 +32038,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -32088,7 +32052,7 @@
         </is>
       </c>
       <c r="E835">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F835">
         <v>102</v>
@@ -32106,7 +32070,7 @@
         <v>102</v>
       </c>
       <c r="K835">
-        <v>29.41</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="836">
@@ -32117,7 +32081,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -32131,7 +32095,7 @@
         </is>
       </c>
       <c r="E836">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F836">
         <v>102</v>
@@ -32149,7 +32113,7 @@
         <v>102</v>
       </c>
       <c r="K836">
-        <v>11.76</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="837">
@@ -32160,7 +32124,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -32174,7 +32138,7 @@
         </is>
       </c>
       <c r="E837">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F837">
         <v>102</v>
@@ -32192,7 +32156,7 @@
         <v>102</v>
       </c>
       <c r="K837">
-        <v>5.88</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="838">
@@ -32203,7 +32167,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -32217,7 +32181,7 @@
         </is>
       </c>
       <c r="E838">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F838">
         <v>102</v>
@@ -32235,7 +32199,7 @@
         <v>102</v>
       </c>
       <c r="K838">
-        <v>3.92</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="839">
@@ -32246,7 +32210,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -32260,7 +32224,7 @@
         </is>
       </c>
       <c r="E839">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F839">
         <v>102</v>
@@ -32278,7 +32242,7 @@
         <v>102</v>
       </c>
       <c r="K839">
-        <v>11.76</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="840">
@@ -32289,7 +32253,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -32303,7 +32267,7 @@
         </is>
       </c>
       <c r="E840">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="F840">
         <v>112</v>
@@ -32321,7 +32285,7 @@
         <v>112</v>
       </c>
       <c r="K840">
-        <v>26.79</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="841">
@@ -32332,7 +32296,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -32372,7 +32336,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -32403,7 +32367,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -32446,7 +32410,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -32460,7 +32424,7 @@
         </is>
       </c>
       <c r="E844">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F844">
         <v>112</v>
@@ -32478,7 +32442,7 @@
         <v>112</v>
       </c>
       <c r="K844">
-        <v>42.86</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="845">
@@ -32489,7 +32453,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -32503,7 +32467,7 @@
         </is>
       </c>
       <c r="E845">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F845">
         <v>112</v>
@@ -32521,7 +32485,7 @@
         <v>112</v>
       </c>
       <c r="K845">
-        <v>4.46</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="846">
@@ -32532,7 +32496,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -32546,7 +32510,7 @@
         </is>
       </c>
       <c r="E846">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F846">
         <v>112</v>
@@ -32564,7 +32528,7 @@
         <v>112</v>
       </c>
       <c r="K846">
-        <v>8.039999999999999</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="847">
@@ -32575,7 +32539,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -32589,7 +32553,7 @@
         </is>
       </c>
       <c r="E847">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F847">
         <v>112</v>
@@ -32607,7 +32571,7 @@
         <v>112</v>
       </c>
       <c r="K847">
-        <v>5.36</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="848">
@@ -32618,7 +32582,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -32632,7 +32596,7 @@
         </is>
       </c>
       <c r="E848">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F848">
         <v>112</v>
@@ -32650,7 +32614,7 @@
         <v>112</v>
       </c>
       <c r="K848">
-        <v>8.93</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="849">
@@ -32661,7 +32625,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -32675,7 +32639,7 @@
         </is>
       </c>
       <c r="E849">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F849">
         <v>117</v>
@@ -32693,7 +32657,7 @@
         <v>117</v>
       </c>
       <c r="K849">
-        <v>23.08</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="850">
@@ -32704,7 +32668,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -32744,7 +32708,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -32775,7 +32739,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -32789,13 +32753,25 @@
         </is>
       </c>
       <c r="E852">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F852">
         <v>117</v>
       </c>
+      <c r="G852">
+        <v>117</v>
+      </c>
+      <c r="H852">
+        <v>0</v>
+      </c>
+      <c r="I852">
+        <v>0</v>
+      </c>
+      <c r="J852">
+        <v>117</v>
+      </c>
       <c r="K852">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="853">
@@ -32806,7 +32782,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -32820,7 +32796,7 @@
         </is>
       </c>
       <c r="E853">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F853">
         <v>117</v>
@@ -32838,7 +32814,7 @@
         <v>117</v>
       </c>
       <c r="K853">
-        <v>36.75</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="854">
@@ -32849,7 +32825,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -32863,7 +32839,7 @@
         </is>
       </c>
       <c r="E854">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F854">
         <v>117</v>
@@ -32881,7 +32857,7 @@
         <v>117</v>
       </c>
       <c r="K854">
-        <v>4.27</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="855">
@@ -32892,7 +32868,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -32906,7 +32882,7 @@
         </is>
       </c>
       <c r="E855">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F855">
         <v>117</v>
@@ -32924,7 +32900,7 @@
         <v>117</v>
       </c>
       <c r="K855">
-        <v>7.69</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="856">
@@ -32935,7 +32911,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -32949,7 +32925,7 @@
         </is>
       </c>
       <c r="E856">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F856">
         <v>117</v>
@@ -32967,7 +32943,7 @@
         <v>117</v>
       </c>
       <c r="K856">
-        <v>5.98</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="857">
@@ -32978,7 +32954,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>DADA2_Taxonomy</t>
+          <t>DADA2Tax</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -32992,7 +32968,7 @@
         </is>
       </c>
       <c r="E857">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F857">
         <v>117</v>
@@ -33010,7 +32986,7 @@
         <v>117</v>
       </c>
       <c r="K857">
-        <v>22.22</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="858">

--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="E77">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F77">
         <v>99</v>
@@ -3340,7 +3340,7 @@
         <v>99</v>
       </c>
       <c r="K77">
-        <v>13.13</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="78">
@@ -3467,25 +3467,13 @@
         </is>
       </c>
       <c r="E81">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>99</v>
       </c>
-      <c r="G81">
-        <v>99</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>99</v>
-      </c>
       <c r="K81">
-        <v>85.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3541,7 +3529,7 @@
         </is>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F83">
         <v>99</v>
@@ -3559,7 +3547,7 @@
         <v>99</v>
       </c>
       <c r="K83">
-        <v>1.01</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="84">
@@ -3584,13 +3572,25 @@
         </is>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F84">
         <v>99</v>
       </c>
+      <c r="G84">
+        <v>99</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>99</v>
+      </c>
       <c r="K84">
-        <v>0</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="85">
@@ -3615,13 +3615,25 @@
         </is>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <v>99</v>
       </c>
+      <c r="G85">
+        <v>99</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>99</v>
+      </c>
       <c r="K85">
-        <v>0</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="86">
@@ -3646,7 +3658,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F86">
         <v>99</v>
@@ -3664,7 +3676,7 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>27.27</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="87">
@@ -3791,7 +3803,7 @@
         </is>
       </c>
       <c r="E90">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>99</v>
@@ -3809,7 +3821,7 @@
         <v>99</v>
       </c>
       <c r="K90">
-        <v>71.72</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="91">
@@ -3865,25 +3877,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>99</v>
       </c>
-      <c r="G92">
-        <v>99</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>99</v>
-      </c>
       <c r="K92">
-        <v>1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3908,13 +3908,25 @@
         </is>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F93">
         <v>99</v>
       </c>
+      <c r="G93">
+        <v>99</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>99</v>
+      </c>
       <c r="K93">
-        <v>0</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="94">
@@ -3939,13 +3951,25 @@
         </is>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F94">
         <v>99</v>
       </c>
+      <c r="G94">
+        <v>99</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>99</v>
+      </c>
       <c r="K94">
-        <v>0</v>
+        <v>50.51</v>
       </c>
     </row>
     <row r="95">
@@ -3961,7 +3985,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4004,7 +4028,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4044,7 +4068,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4075,7 +4099,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4106,7 +4130,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4137,7 +4161,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4168,7 +4192,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4199,7 +4223,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4230,7 +4254,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5005,7 +5029,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5048,7 +5072,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5088,7 +5112,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5131,7 +5155,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5174,7 +5198,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5217,7 +5241,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5260,7 +5284,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5291,7 +5315,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5334,7 +5358,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6066,7 +6090,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6109,7 +6133,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6149,7 +6173,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6180,7 +6204,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6223,7 +6247,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6266,7 +6290,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6309,7 +6333,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6352,7 +6376,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6395,7 +6419,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7158,7 +7182,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7201,7 +7225,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7241,7 +7265,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7272,7 +7296,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7303,7 +7327,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7334,7 +7358,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7377,7 +7401,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7420,7 +7444,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7463,7 +7487,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8214,7 +8238,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8257,7 +8281,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8297,7 +8321,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8328,7 +8352,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8359,7 +8383,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8390,7 +8414,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8433,7 +8457,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8476,7 +8500,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -8519,7 +8543,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -9234,7 +9258,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -9277,7 +9301,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -9317,7 +9341,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -9348,7 +9372,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -9379,7 +9403,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9410,7 +9434,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -9453,7 +9477,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9484,7 +9508,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -9527,7 +9551,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -10254,7 +10278,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -10297,7 +10321,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -10337,7 +10361,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10368,7 +10392,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -10399,7 +10423,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -10430,7 +10454,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -10473,7 +10497,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -10504,7 +10528,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -10547,7 +10571,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -11267,7 +11291,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -11307,7 +11331,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -11350,7 +11374,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -11393,7 +11417,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -11436,7 +11460,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -11479,7 +11503,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -11522,7 +11546,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -11565,7 +11589,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -12280,7 +12304,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -12323,7 +12347,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -12363,7 +12387,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -12406,7 +12430,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -12437,7 +12461,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -12480,7 +12504,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -12523,7 +12547,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -12566,7 +12590,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -12597,7 +12621,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -13226,7 +13250,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -13266,7 +13290,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -13309,7 +13333,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -13340,7 +13364,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -13371,7 +13395,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -13414,7 +13438,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -13457,7 +13481,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -13488,7 +13512,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -14203,7 +14227,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -14246,7 +14270,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -14286,7 +14310,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -14317,7 +14341,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -14348,7 +14372,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -14379,7 +14403,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -14422,7 +14446,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -14465,7 +14489,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -14496,7 +14520,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -15149,7 +15173,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -15189,7 +15213,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -15220,7 +15244,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -15251,7 +15275,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -15282,7 +15306,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -15325,7 +15349,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -15356,7 +15380,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -15399,7 +15423,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -16064,7 +16088,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -16104,7 +16128,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -16135,7 +16159,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -16166,7 +16190,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -16197,7 +16221,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -16240,7 +16264,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -16271,7 +16295,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -16314,7 +16338,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -17005,7 +17029,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -17048,7 +17072,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -17088,7 +17112,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -17119,7 +17143,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -17150,7 +17174,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -17181,7 +17205,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -17212,7 +17236,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -17255,7 +17279,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -17286,7 +17310,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -17483,25 +17507,13 @@
         </is>
       </c>
       <c r="E447">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F447">
         <v>24</v>
       </c>
-      <c r="G447">
-        <v>24</v>
-      </c>
-      <c r="H447">
-        <v>0</v>
-      </c>
-      <c r="I447">
-        <v>0</v>
-      </c>
-      <c r="J447">
-        <v>24</v>
-      </c>
       <c r="K447">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -17557,13 +17569,25 @@
         </is>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449">
         <v>24</v>
       </c>
+      <c r="G449">
+        <v>24</v>
+      </c>
+      <c r="H449">
+        <v>0</v>
+      </c>
+      <c r="I449">
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <v>24</v>
+      </c>
       <c r="K449">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="450">
@@ -17588,13 +17612,25 @@
         </is>
       </c>
       <c r="E450">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F450">
         <v>24</v>
       </c>
+      <c r="G450">
+        <v>24</v>
+      </c>
+      <c r="H450">
+        <v>0</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>24</v>
+      </c>
       <c r="K450">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="451">
@@ -17619,13 +17655,25 @@
         </is>
       </c>
       <c r="E451">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F451">
         <v>24</v>
       </c>
+      <c r="G451">
+        <v>24</v>
+      </c>
+      <c r="H451">
+        <v>0</v>
+      </c>
+      <c r="I451">
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <v>24</v>
+      </c>
       <c r="K451">
-        <v>0</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="452">
@@ -17795,25 +17843,13 @@
         </is>
       </c>
       <c r="E456">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F456">
         <v>27</v>
       </c>
-      <c r="G456">
-        <v>27</v>
-      </c>
-      <c r="H456">
-        <v>0</v>
-      </c>
-      <c r="I456">
-        <v>0</v>
-      </c>
-      <c r="J456">
-        <v>27</v>
-      </c>
       <c r="K456">
-        <v>44.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -17869,13 +17905,25 @@
         </is>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F458">
         <v>27</v>
       </c>
+      <c r="G458">
+        <v>27</v>
+      </c>
+      <c r="H458">
+        <v>0</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>27</v>
+      </c>
       <c r="K458">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="459">
@@ -17900,13 +17948,25 @@
         </is>
       </c>
       <c r="E459">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F459">
         <v>27</v>
       </c>
+      <c r="G459">
+        <v>27</v>
+      </c>
+      <c r="H459">
+        <v>0</v>
+      </c>
+      <c r="I459">
+        <v>0</v>
+      </c>
+      <c r="J459">
+        <v>27</v>
+      </c>
       <c r="K459">
-        <v>0</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="460">
@@ -17931,13 +17991,25 @@
         </is>
       </c>
       <c r="E460">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F460">
         <v>27</v>
       </c>
+      <c r="G460">
+        <v>27</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>27</v>
+      </c>
       <c r="K460">
-        <v>0</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="461">
@@ -17953,7 +18025,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -17996,7 +18068,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -18036,7 +18108,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -18067,7 +18139,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -18098,7 +18170,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -18129,7 +18201,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -18160,7 +18232,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -18191,7 +18263,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -18222,7 +18294,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -18973,7 +19045,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -19016,7 +19088,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -19056,7 +19128,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -19099,7 +19171,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -19130,7 +19202,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -19173,7 +19245,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -19216,7 +19288,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -19259,7 +19331,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -19302,7 +19374,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -19967,7 +20039,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -20007,7 +20079,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -20038,7 +20110,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -20069,7 +20141,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -20100,7 +20172,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -20143,7 +20215,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -20174,7 +20246,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -20217,7 +20289,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -20925,7 +20997,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -20968,7 +21040,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -21008,7 +21080,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -21039,7 +21111,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -21070,7 +21142,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -21101,7 +21173,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -21144,7 +21216,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -21175,7 +21247,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -21218,7 +21290,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -21914,7 +21986,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -21957,7 +22029,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -21997,7 +22069,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -22028,7 +22100,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -22059,7 +22131,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -22090,7 +22162,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -22133,7 +22205,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -22164,7 +22236,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -22207,7 +22279,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -22898,7 +22970,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -22941,7 +23013,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -22981,7 +23053,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -23012,7 +23084,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -23043,7 +23115,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -23074,7 +23146,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -23105,7 +23177,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -23136,7 +23208,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -23179,7 +23251,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -23870,7 +23942,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -23913,7 +23985,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -23953,7 +24025,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -23984,7 +24056,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -24015,7 +24087,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -24046,7 +24118,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -24077,7 +24149,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -24108,7 +24180,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -24151,7 +24223,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -24816,7 +24888,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -24856,7 +24928,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -24887,7 +24959,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -24918,7 +24990,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -24949,7 +25021,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -24992,7 +25064,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -25035,7 +25107,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -25078,7 +25150,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -25805,7 +25877,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -25845,7 +25917,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -25876,7 +25948,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -25907,7 +25979,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -25938,7 +26010,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -25981,7 +26053,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -26024,7 +26096,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -26055,7 +26127,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -26672,7 +26744,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -26712,7 +26784,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -26743,7 +26815,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -26774,7 +26846,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -26805,7 +26877,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -26848,7 +26920,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -26891,7 +26963,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -26922,7 +26994,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -27649,7 +27721,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -27692,7 +27764,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -27732,7 +27804,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -27763,7 +27835,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -27794,7 +27866,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -27825,7 +27897,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -27856,7 +27928,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -27887,7 +27959,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -27918,7 +27990,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -28583,7 +28655,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -28623,7 +28695,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -28666,7 +28738,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -28697,7 +28769,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -28740,7 +28812,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -28783,7 +28855,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -28826,7 +28898,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -28869,7 +28941,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -29613,7 +29685,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -29653,7 +29725,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -29696,7 +29768,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -29727,7 +29799,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -29770,7 +29842,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -29813,7 +29885,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -29856,7 +29928,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -29899,7 +29971,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -30614,7 +30686,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -30657,7 +30729,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -30697,7 +30769,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -30728,7 +30800,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -30759,7 +30831,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -30790,7 +30862,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -30821,7 +30893,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -30864,7 +30936,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -30895,7 +30967,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -30947,7 +31019,7 @@
         </is>
       </c>
       <c r="E804">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F804">
         <v>102</v>
@@ -30965,7 +31037,7 @@
         <v>102</v>
       </c>
       <c r="K804">
-        <v>22.55</v>
+        <v>24.51</v>
       </c>
     </row>
     <row r="805">
@@ -31092,25 +31164,13 @@
         </is>
       </c>
       <c r="E808">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F808">
         <v>102</v>
       </c>
-      <c r="G808">
-        <v>102</v>
-      </c>
-      <c r="H808">
-        <v>0</v>
-      </c>
-      <c r="I808">
-        <v>0</v>
-      </c>
-      <c r="J808">
-        <v>102</v>
-      </c>
       <c r="K808">
-        <v>74.51000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -31209,13 +31269,25 @@
         </is>
       </c>
       <c r="E811">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F811">
         <v>102</v>
       </c>
+      <c r="G811">
+        <v>102</v>
+      </c>
+      <c r="H811">
+        <v>0</v>
+      </c>
+      <c r="I811">
+        <v>0</v>
+      </c>
+      <c r="J811">
+        <v>102</v>
+      </c>
       <c r="K811">
-        <v>0</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="812">
@@ -31240,13 +31312,25 @@
         </is>
       </c>
       <c r="E812">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F812">
         <v>102</v>
       </c>
+      <c r="G812">
+        <v>102</v>
+      </c>
+      <c r="H812">
+        <v>0</v>
+      </c>
+      <c r="I812">
+        <v>0</v>
+      </c>
+      <c r="J812">
+        <v>102</v>
+      </c>
       <c r="K812">
-        <v>0</v>
+        <v>55.88</v>
       </c>
     </row>
     <row r="813">
@@ -31271,7 +31355,7 @@
         </is>
       </c>
       <c r="E813">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F813">
         <v>112</v>
@@ -31289,7 +31373,7 @@
         <v>112</v>
       </c>
       <c r="K813">
-        <v>38.39</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="814">
@@ -31416,7 +31500,7 @@
         </is>
       </c>
       <c r="E817">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="F817">
         <v>112</v>
@@ -31434,7 +31518,7 @@
         <v>112</v>
       </c>
       <c r="K817">
-        <v>59.82</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="818">
@@ -31490,7 +31574,7 @@
         </is>
       </c>
       <c r="E819">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F819">
         <v>112</v>
@@ -31508,7 +31592,7 @@
         <v>112</v>
       </c>
       <c r="K819">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="820">
@@ -31533,13 +31617,25 @@
         </is>
       </c>
       <c r="E820">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F820">
         <v>112</v>
       </c>
+      <c r="G820">
+        <v>112</v>
+      </c>
+      <c r="H820">
+        <v>0</v>
+      </c>
+      <c r="I820">
+        <v>0</v>
+      </c>
+      <c r="J820">
+        <v>112</v>
+      </c>
       <c r="K820">
-        <v>0</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="821">
@@ -31564,13 +31660,25 @@
         </is>
       </c>
       <c r="E821">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F821">
         <v>112</v>
       </c>
+      <c r="G821">
+        <v>112</v>
+      </c>
+      <c r="H821">
+        <v>0</v>
+      </c>
+      <c r="I821">
+        <v>0</v>
+      </c>
+      <c r="J821">
+        <v>112</v>
+      </c>
       <c r="K821">
-        <v>0</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="822">
@@ -31586,7 +31694,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -31629,7 +31737,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
@@ -31669,7 +31777,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -31700,7 +31808,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -31731,7 +31839,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -31762,7 +31870,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -31793,7 +31901,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -31824,7 +31932,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
@@ -31855,7 +31963,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -32630,7 +32738,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -32673,7 +32781,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
@@ -32713,7 +32821,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -32744,7 +32852,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -32787,7 +32895,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -32830,7 +32938,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -32873,7 +32981,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -32916,7 +33024,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -32959,7 +33067,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -33746,7 +33854,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
@@ -33789,7 +33897,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -33829,7 +33937,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -33860,7 +33968,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -33891,7 +33999,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
@@ -33934,7 +34042,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -33977,7 +34085,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
@@ -34008,7 +34116,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
@@ -34051,7 +34159,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
@@ -34838,7 +34946,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -34881,7 +34989,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
@@ -34921,7 +35029,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
@@ -34952,7 +35060,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -34983,7 +35091,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -35014,7 +35122,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -35057,7 +35165,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
@@ -35088,7 +35196,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
@@ -35131,7 +35239,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -35906,7 +36014,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D930" t="inlineStr">
@@ -35949,7 +36057,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -35989,7 +36097,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
@@ -36020,7 +36128,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
@@ -36051,7 +36159,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -36082,7 +36190,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
@@ -36125,7 +36233,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
@@ -36156,7 +36264,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
@@ -36199,7 +36307,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -36914,7 +37022,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
@@ -36957,7 +37065,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
@@ -36997,7 +37105,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
@@ -37028,7 +37136,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
@@ -37059,7 +37167,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
@@ -37090,7 +37198,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -37121,7 +37229,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
@@ -37152,7 +37260,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -37195,7 +37303,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -37934,7 +38042,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -37977,7 +38085,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D985" t="inlineStr">
@@ -38017,7 +38125,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D986" t="inlineStr">
@@ -38048,7 +38156,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D987" t="inlineStr">
@@ -38079,7 +38187,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D988" t="inlineStr">
@@ -38110,7 +38218,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D989" t="inlineStr">
@@ -38153,7 +38261,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
@@ -38184,7 +38292,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
@@ -38227,7 +38335,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D992" t="inlineStr">
@@ -39002,7 +39110,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
@@ -39042,7 +39150,7 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
@@ -39073,7 +39181,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
@@ -39104,7 +39212,7 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
@@ -39135,7 +39243,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr">
@@ -39178,7 +39286,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1016" t="inlineStr">
@@ -39221,7 +39329,7 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
@@ -39264,7 +39372,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
@@ -40003,7 +40111,7 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
@@ -40046,7 +40154,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
@@ -40086,7 +40194,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
@@ -40117,7 +40225,7 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
@@ -40148,7 +40256,7 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
@@ -40191,7 +40299,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
@@ -40234,7 +40342,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
@@ -40277,7 +40385,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
@@ -40308,7 +40416,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr">
@@ -41004,7 +41112,7 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
@@ -41044,7 +41152,7 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
@@ -41075,7 +41183,7 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
@@ -41106,7 +41214,7 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
@@ -41149,7 +41257,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
@@ -41192,7 +41300,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
@@ -41235,7 +41343,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
@@ -41266,7 +41374,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
@@ -42005,7 +42113,7 @@
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
@@ -42048,7 +42156,7 @@
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr">
@@ -42088,7 +42196,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
@@ -42119,7 +42227,7 @@
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
@@ -42150,7 +42258,7 @@
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
@@ -42181,7 +42289,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
@@ -42212,7 +42320,7 @@
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
@@ -42255,7 +42363,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
@@ -42286,7 +42394,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>CO1</t>
+          <t>COI</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">

--- a/results/tables/Counted_correctness.xlsx
+++ b/results/tables/Counted_correctness.xlsx
@@ -1034,22 +1034,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K18">
-        <v>12.12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1080,19 +1080,19 @@
         <v>87</v>
       </c>
       <c r="G19">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1185,19 +1185,19 @@
         <v>87</v>
       </c>
       <c r="G22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K22">
-        <v>16.16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>87</v>
       </c>
       <c r="G24">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>100</v>
+      </c>
+      <c r="K24">
         <v>12</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>99</v>
-      </c>
-      <c r="K24">
-        <v>12.12</v>
       </c>
     </row>
     <row r="25">
@@ -1302,19 +1302,19 @@
         <v>87</v>
       </c>
       <c r="G25">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>58.59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -1985,22 +1985,22 @@
         </is>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G42">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J42">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>7.07</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2031,19 +2031,19 @@
         <v>92</v>
       </c>
       <c r="G43">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2105,19 +2105,19 @@
         <v>92</v>
       </c>
       <c r="G45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J45">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2148,19 +2148,19 @@
         <v>92</v>
       </c>
       <c r="G46">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J46">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K46">
-        <v>17.17</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2222,19 +2222,19 @@
         <v>92</v>
       </c>
       <c r="G48">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J48">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>23.23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -2265,19 +2265,19 @@
         <v>92</v>
       </c>
       <c r="G49">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K49">
-        <v>50.51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50">
@@ -2980,19 +2980,19 @@
         <v>100</v>
       </c>
       <c r="G68">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>27.27</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -3017,22 +3017,22 @@
         </is>
       </c>
       <c r="E69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G69">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K69">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3125,19 +3125,19 @@
         <v>100</v>
       </c>
       <c r="G72">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K72">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3199,19 +3199,19 @@
         <v>100</v>
       </c>
       <c r="G74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K74">
-        <v>8.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3273,19 +3273,19 @@
         <v>100</v>
       </c>
       <c r="G76">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K76">
-        <v>63.64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77">
@@ -3988,19 +3988,19 @@
         <v>100</v>
       </c>
       <c r="G95">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K95">
-        <v>31.31</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -4025,22 +4025,22 @@
         </is>
       </c>
       <c r="E96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G96">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K96">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4226,19 +4226,19 @@
         <v>100</v>
       </c>
       <c r="G102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K102">
-        <v>12.12</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
@@ -4269,19 +4269,19 @@
         <v>100</v>
       </c>
       <c r="G103">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K103">
-        <v>57.58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104">
@@ -5056,19 +5056,19 @@
         <v>100</v>
       </c>
       <c r="G122">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J122">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K122">
-        <v>41.41</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123">
@@ -5093,22 +5093,22 @@
         </is>
       </c>
       <c r="E123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G123">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K123">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5139,19 +5139,19 @@
         <v>100</v>
       </c>
       <c r="G124">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K124">
-        <v>5.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -5182,19 +5182,19 @@
         <v>100</v>
       </c>
       <c r="G125">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K125">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -5225,19 +5225,19 @@
         <v>100</v>
       </c>
       <c r="G126">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K126">
-        <v>27.27</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127">
@@ -5268,19 +5268,19 @@
         <v>100</v>
       </c>
       <c r="G127">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J127">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K127">
-        <v>9.09</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -5311,19 +5311,19 @@
         <v>100</v>
       </c>
       <c r="G128">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K128">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -5354,19 +5354,19 @@
         <v>100</v>
       </c>
       <c r="G129">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K129">
-        <v>4.04</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -5397,19 +5397,19 @@
         <v>100</v>
       </c>
       <c r="G130">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K130">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="E148">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F148">
         <v>100</v>
       </c>
       <c r="G148">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J148">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K148">
-        <v>101.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -6166,22 +6166,22 @@
         </is>
       </c>
       <c r="E149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G149">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K149">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6299,13 +6299,25 @@
         </is>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F153">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>100</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -6330,13 +6342,25 @@
         </is>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F154">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>100</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -6361,13 +6385,25 @@
         </is>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F155">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>100</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156">
@@ -6392,13 +6428,25 @@
         </is>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F156">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>100</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157">
@@ -7143,25 +7191,25 @@
         </is>
       </c>
       <c r="E175">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F175">
         <v>100</v>
       </c>
       <c r="G175">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K175">
-        <v>101.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -7186,22 +7234,22 @@
         </is>
       </c>
       <c r="E176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G176">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K176">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7229,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7260,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -7291,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -7319,13 +7367,25 @@
         </is>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F180">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G180">
+        <v>100</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>100</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
@@ -7350,13 +7410,25 @@
         </is>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G181">
+        <v>100</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>100</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -7381,13 +7453,25 @@
         </is>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F182">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>100</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
@@ -7412,13 +7496,25 @@
         </is>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F183">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>100</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="184">
@@ -8151,25 +8247,25 @@
         </is>
       </c>
       <c r="E202">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F202">
         <v>100</v>
       </c>
       <c r="G202">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J202">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K202">
-        <v>101.01</v>
+        <v>6</v>
       </c>
     </row>
     <row r="203">
@@ -8194,22 +8290,22 @@
         </is>
       </c>
       <c r="E203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G203">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J203">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K203">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8237,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -8268,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -8299,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -8327,13 +8423,25 @@
         </is>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F207">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G207">
+        <v>100</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>100</v>
       </c>
       <c r="K207">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208">
@@ -8358,13 +8466,25 @@
         </is>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G208">
+        <v>100</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>100</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -8389,13 +8509,25 @@
         </is>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F209">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G209">
+        <v>100</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>100</v>
       </c>
       <c r="K209">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -8420,13 +8552,25 @@
         </is>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F210">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="G210">
+        <v>100</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>100</v>
       </c>
       <c r="K210">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211">
@@ -9129,19 +9273,19 @@
         <v>100</v>
       </c>
       <c r="G229">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J229">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K229">
-        <v>28.28</v>
+        <v>28</v>
       </c>
     </row>
     <row r="230">
@@ -9166,22 +9310,22 @@
         </is>
       </c>
       <c r="E230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G230">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K230">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -9209,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -9240,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -9271,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -9305,19 +9449,19 @@
         <v>100</v>
       </c>
       <c r="G234">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J234">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K234">
-        <v>3.03</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -9345,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -9379,19 +9523,19 @@
         <v>100</v>
       </c>
       <c r="G236">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K236">
-        <v>12.12</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237">
@@ -9422,19 +9566,19 @@
         <v>100</v>
       </c>
       <c r="G237">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K237">
-        <v>57.58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238">
@@ -10149,19 +10293,19 @@
         <v>100</v>
       </c>
       <c r="G256">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J256">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K256">
-        <v>23.23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
@@ -10186,22 +10330,22 @@
         </is>
       </c>
       <c r="E257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G257">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I257">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J257">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K257">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -10229,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -10260,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -10291,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="F260">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K260">
         <v>0</v>
@@ -10325,19 +10469,19 @@
         <v>100</v>
       </c>
       <c r="G261">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K261">
-        <v>3.03</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -10365,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="F262">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -10399,19 +10543,19 @@
         <v>100</v>
       </c>
       <c r="G263">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J263">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K263">
-        <v>13.13</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
@@ -10442,19 +10586,19 @@
         <v>100</v>
       </c>
       <c r="G264">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I264">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J264">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K264">
-        <v>61.62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="265">
@@ -11186,19 +11330,19 @@
         <v>68</v>
       </c>
       <c r="G282">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H282">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I282">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J282">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K282">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -11223,22 +11367,22 @@
         </is>
       </c>
       <c r="E283">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F283">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G283">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I283">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J283">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K283">
-        <v>31.31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -11266,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -11297,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K285">
         <v>0</v>
@@ -11328,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -11362,19 +11506,19 @@
         <v>68</v>
       </c>
       <c r="G287">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H287">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I287">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J287">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K287">
-        <v>17.17</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288">
@@ -11405,19 +11549,19 @@
         <v>68</v>
       </c>
       <c r="G288">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H288">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I288">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J288">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K288">
-        <v>2.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -11448,19 +11592,19 @@
         <v>68</v>
       </c>
       <c r="G289">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H289">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I289">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J289">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K289">
-        <v>24.24</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290">
@@ -11491,19 +11635,19 @@
         <v>68</v>
       </c>
       <c r="G290">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H290">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I290">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J290">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K290">
-        <v>24.24</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291">
@@ -12206,19 +12350,19 @@
         <v>100</v>
       </c>
       <c r="G309">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J309">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K309">
-        <v>14.14</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310">
@@ -12243,22 +12387,22 @@
         </is>
       </c>
       <c r="E310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F310">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G310">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J310">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K310">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -12289,19 +12433,19 @@
         <v>100</v>
       </c>
       <c r="G311">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H311">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J311">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K311">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -12329,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -12360,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -12394,19 +12538,19 @@
         <v>100</v>
       </c>
       <c r="G314">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I314">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J314">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K314">
-        <v>11.11</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315">
@@ -12437,19 +12581,19 @@
         <v>100</v>
       </c>
       <c r="G315">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I315">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J315">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K315">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -12477,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="F316">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -12511,19 +12655,19 @@
         <v>100</v>
       </c>
       <c r="G317">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J317">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K317">
-        <v>64.65000000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318">
@@ -13134,22 +13278,22 @@
         </is>
       </c>
       <c r="E334">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F334">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G334">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I334">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J334">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K334">
-        <v>31.31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="335">
@@ -13180,19 +13324,19 @@
         <v>68</v>
       </c>
       <c r="G335">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H335">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I335">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J335">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K335">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -13220,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="F336">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K336">
         <v>0</v>
@@ -13254,19 +13398,19 @@
         <v>68</v>
       </c>
       <c r="G337">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H337">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I337">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J337">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K337">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -13297,19 +13441,19 @@
         <v>68</v>
       </c>
       <c r="G338">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H338">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I338">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J338">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K338">
-        <v>8.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339">
@@ -13340,19 +13484,19 @@
         <v>68</v>
       </c>
       <c r="G339">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H339">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I339">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J339">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K339">
-        <v>7.07</v>
+        <v>7</v>
       </c>
     </row>
     <row r="340">
@@ -13380,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="F340">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K340">
         <v>0</v>
@@ -13414,19 +13558,19 @@
         <v>68</v>
       </c>
       <c r="G341">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H341">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I341">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J341">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K341">
-        <v>51.52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342">
@@ -14129,19 +14273,19 @@
         <v>100</v>
       </c>
       <c r="G360">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H360">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I360">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J360">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K360">
-        <v>20.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361">
@@ -14166,22 +14310,22 @@
         </is>
       </c>
       <c r="E361">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F361">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G361">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I361">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J361">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K361">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -14212,19 +14356,19 @@
         <v>100</v>
       </c>
       <c r="G362">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H362">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J362">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K362">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -14252,7 +14396,7 @@
         <v>0</v>
       </c>
       <c r="F363">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K363">
         <v>0</v>
@@ -14286,19 +14430,19 @@
         <v>100</v>
       </c>
       <c r="G364">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J364">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K364">
-        <v>1.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -14329,19 +14473,19 @@
         <v>100</v>
       </c>
       <c r="G365">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J365">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K365">
-        <v>10.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366">
@@ -14372,19 +14516,19 @@
         <v>100</v>
       </c>
       <c r="G366">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H366">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J366">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K366">
-        <v>8.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367">
@@ -14412,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="F367">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K367">
         <v>0</v>
@@ -14446,19 +14590,19 @@
         <v>100</v>
       </c>
       <c r="G368">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J368">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K368">
-        <v>60.61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369">
